--- a/data/fleas_model_data_backup.xlsx
+++ b/data/fleas_model_data_backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6A2984-E416-DD46-A31C-42A1B6C70901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B1C35-2244-4247-8033-70BAD341D2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="960" windowWidth="28240" windowHeight="17240" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="37512" windowHeight="15456" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
   </bookViews>
   <sheets>
     <sheet name="mixed-fac2" sheetId="5" r:id="rId1"/>
@@ -505,18 +505,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE453879-BAE6-2F44-9A5D-0C701CFC8D13}">
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -605,7 +606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -617,11 +618,11 @@
       </c>
       <c r="D2" s="2">
         <f ca="1">NORMINV(RAND(),17,3)</f>
-        <v>14.525560412011853</v>
+        <v>18.42533675890482</v>
       </c>
       <c r="E2" s="7">
         <f ca="1">_xlfn.LOGNORM.INV(RAND(),6,0.5)</f>
-        <v>687.89491266601908</v>
+        <v>552.05525933458205</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -640,24 +641,27 @@
       </c>
       <c r="K2" s="8">
         <f ca="1">F2+G2 + H2+I2*D2+J2*E2+NORMINV(RAND(),0,5)</f>
-        <v>73.637085445266749</v>
+        <v>75.309599101758906</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="N2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="P2">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q2" s="8">
+        <f ca="1">L2+M2+N2+O2*D2+P2*E2+NORMINV(RAND(),0,5)</f>
+        <v>8.2483790383560738</v>
+      </c>
       <c r="R2">
         <v>10</v>
       </c>
@@ -691,7 +695,7 @@
       </c>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -703,11 +707,11 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D9" ca="1" si="0">NORMINV(RAND(),17,3)</f>
-        <v>14.613210546776926</v>
+        <v>16.43667668696478</v>
       </c>
       <c r="E3" s="7">
         <f t="shared" ref="E3:E49" ca="1" si="1">_xlfn.LOGNORM.INV(RAND(),6,0.5)</f>
-        <v>1212.8962791888723</v>
+        <v>191.36952526126794</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -726,24 +730,27 @@
       </c>
       <c r="K3" s="8">
         <f t="shared" ref="K3:K49" ca="1" si="2">F3+G3 + H3+I3*D3+J3*E3+NORMINV(RAND(),0,5)</f>
-        <v>104.15162215254226</v>
+        <v>54.178016581388476</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="P3">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" ref="Q3:Q49" ca="1" si="3">L3+M3 + N3+O3*J3+P3*K3+NORMINV(RAND(),0,5)</f>
+        <v>2.4332145410134229</v>
+      </c>
       <c r="R3">
         <v>10</v>
       </c>
@@ -777,7 +784,7 @@
       </c>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -789,11 +796,11 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13.666512403029392</v>
+        <v>20.133787375089863</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>469.08452544467832</v>
+        <v>299.26058924021595</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -812,24 +819,27 @@
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>61.637415223777808</v>
+        <v>69.202069953224139</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="N4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="P4">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.1611949892992701</v>
+      </c>
       <c r="R4">
         <v>10</v>
       </c>
@@ -863,7 +873,7 @@
       </c>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -875,11 +885,11 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.192921120610659</v>
+        <v>19.975251904449092</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>861.03222778700626</v>
+        <v>129.4001157433635</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -898,24 +908,27 @@
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>97.315474407890164</v>
+        <v>58.220580421706295</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="N5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="P5">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25234098242634939</v>
+      </c>
       <c r="R5">
         <v>10</v>
       </c>
@@ -949,7 +962,7 @@
       </c>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -961,11 +974,11 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.962939141068933</v>
+        <v>20.700348414664958</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>261.41673643675682</v>
+        <v>450.88596289066913</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -984,24 +997,27 @@
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>59.952584920196657</v>
+        <v>66.019643122721888</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="N6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.1074048094748701</v>
+      </c>
       <c r="R6">
         <v>10</v>
       </c>
@@ -1035,7 +1051,7 @@
       </c>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1047,11 +1063,11 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.039711095803158</v>
+        <v>15.455822475766318</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>291.38870925116271</v>
+        <v>382.23529794475127</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1070,24 +1086,27 @@
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>54.98044961258725</v>
+        <v>67.466310382125883</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="P7">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.5872274924519871</v>
+      </c>
       <c r="R7">
         <v>10</v>
       </c>
@@ -1121,7 +1140,7 @@
       </c>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1133,11 +1152,11 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.632001986726692</v>
+        <v>18.530249503784553</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>498.01011666152272</v>
+        <v>459.71847390170774</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1156,24 +1175,27 @@
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>65.484264043145387</v>
+        <v>61.334839889705265</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="N8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="P8">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.0181690241657853</v>
+      </c>
       <c r="R8">
         <v>10</v>
       </c>
@@ -1207,7 +1229,7 @@
       </c>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1219,11 +1241,11 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.543764580764513</v>
+        <v>20.404646411625652</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>368.02841881436439</v>
+        <v>519.26395101307151</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1242,24 +1264,27 @@
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>71.255987792079353</v>
+        <v>79.027918991291727</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="N9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="P9">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5779739316777661</v>
+      </c>
       <c r="R9">
         <v>10</v>
       </c>
@@ -1293,7 +1318,7 @@
       </c>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1305,11 +1330,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NORMINV(RAND(),5,1)</f>
-        <v>3.9348783241521588</v>
+        <v>5.8585225556889302</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>233.23387176875534</v>
+        <v>698.83458016954967</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -1328,24 +1353,27 @@
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>44.608450323298754</v>
+        <v>73.550115378715589</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="P10">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.3668339026835676</v>
+      </c>
       <c r="R10">
         <v>10</v>
       </c>
@@ -1379,7 +1407,7 @@
       </c>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1390,12 +1418,12 @@
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:D17" ca="1" si="3">NORMINV(RAND(),5,1)</f>
-        <v>6.0164096722930802</v>
+        <f t="shared" ref="D11:D17" ca="1" si="4">NORMINV(RAND(),5,1)</f>
+        <v>5.8971193990710677</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>186.96784143128738</v>
+        <v>584.6881346115382</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -1414,24 +1442,27 @@
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>45.384137435347647</v>
+        <v>61.624306772853075</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="P11">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.6445304130835252</v>
+      </c>
       <c r="R11">
         <v>10</v>
       </c>
@@ -1465,7 +1496,7 @@
       </c>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1476,12 +1507,12 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.9893307711358199</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.5865756240859819</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>493.22844842066735</v>
+        <v>309.01184378861609</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -1500,24 +1531,27 @@
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>60.821793845675025</v>
+        <v>45.169887056133604</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.598593600535374</v>
+      </c>
       <c r="R12">
         <v>10</v>
       </c>
@@ -1551,7 +1585,7 @@
       </c>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1562,12 +1596,12 @@
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.5807471491332601</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0632605291971391</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>357.72714289819413</v>
+        <v>209.30369493669974</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -1586,24 +1620,27 @@
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>51.811748546563031</v>
+        <v>39.907195162750007</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>13.439825302988343</v>
+      </c>
       <c r="R13">
         <v>10</v>
       </c>
@@ -1637,7 +1674,7 @@
       </c>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1648,12 +1685,12 @@
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.0426946460262565</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.4069554101553381</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>816.31996120416647</v>
+        <v>245.77448366825718</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -1672,24 +1709,27 @@
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>70.249787576715534</v>
+        <v>47.681092436618883</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="P14">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>13.204723100527323</v>
+      </c>
       <c r="R14">
         <v>10</v>
       </c>
@@ -1723,7 +1763,7 @@
       </c>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1734,12 +1774,12 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.2130988545539001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.8396049972132413</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>217.16326869483959</v>
+        <v>689.99616602622473</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -1758,24 +1798,27 @@
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>46.315389248824324</v>
+        <v>72.98812328536107</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="P15">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>12.18744066449217</v>
+      </c>
       <c r="R15">
         <v>10</v>
       </c>
@@ -1809,7 +1852,7 @@
       </c>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1820,12 +1863,12 @@
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.2955685380741873</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.0856760535978012</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>163.16579827364382</v>
+        <v>584.52622254612118</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -1844,24 +1887,27 @@
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>37.581093405817853</v>
+        <v>51.190928460426335</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="P16">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>13.879952926619511</v>
+      </c>
       <c r="R16">
         <v>10</v>
       </c>
@@ -1895,7 +1941,7 @@
       </c>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1906,12 +1952,12 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2038936165794096</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.827317778649495</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>264.52082427350319</v>
+        <v>507.03894928250685</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1930,24 +1976,27 @@
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>50.200001738216194</v>
+        <v>62.936349407543567</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="P17">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>14.069792083237564</v>
+      </c>
       <c r="R17">
         <v>10</v>
       </c>
@@ -1981,7 +2030,7 @@
       </c>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1993,11 +2042,11 @@
       </c>
       <c r="D18" s="2">
         <f ca="1">NORMINV(RAND(),12,4)</f>
-        <v>12.798717077448346</v>
+        <v>14.977459253039019</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>330.35618822766691</v>
+        <v>440.0789957599734</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -2016,24 +2065,27 @@
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.997303249501954</v>
+        <v>84.904039094967303</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="P18">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q18" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>15.347164741425468</v>
+      </c>
       <c r="R18">
         <v>10</v>
       </c>
@@ -2067,7 +2119,7 @@
       </c>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2078,12 +2130,12 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:D25" ca="1" si="4">NORMINV(RAND(),12,4)</f>
-        <v>8.2399595528129996</v>
+        <f t="shared" ref="D19:D25" ca="1" si="5">NORMINV(RAND(),12,4)</f>
+        <v>5.1963190407404305</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>313.62718904763307</v>
+        <v>575.44534100847852</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -2102,24 +2154,27 @@
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>74.028605272060389</v>
+        <v>87.629853376975845</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="P19">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q19" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.60783844810932752</v>
+      </c>
       <c r="R19">
         <v>10</v>
       </c>
@@ -2153,7 +2208,7 @@
       </c>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2164,12 +2219,12 @@
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.2094200209113932</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.5532464184412564</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>286.16735739522602</v>
+        <v>505.38626949594953</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -2188,24 +2243,27 @@
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>74.894407273835526</v>
+        <v>84.647324223445466</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="P20">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.505270834790382</v>
+      </c>
       <c r="R20">
         <v>10</v>
       </c>
@@ -2239,7 +2297,7 @@
       </c>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2250,12 +2308,12 @@
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>16.865676255661537</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.42442663079100207</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>355.47872662047274</v>
+        <v>862.81707250210491</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -2274,24 +2332,27 @@
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>83.888455987042519</v>
+        <v>100.66773625028688</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="P21">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.3857499029810585</v>
+      </c>
       <c r="R21">
         <v>10</v>
       </c>
@@ -2325,7 +2386,7 @@
       </c>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2336,12 +2397,12 @@
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>17.037389859695651</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.6585313369547325</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>510.74723618374185</v>
+        <v>250.73769078243768</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -2360,24 +2421,27 @@
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>97.569525396280611</v>
+        <v>75.45941740935659</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="P22">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.1964730210091741</v>
+      </c>
       <c r="R22">
         <v>10</v>
       </c>
@@ -2411,7 +2475,7 @@
       </c>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2422,12 +2486,12 @@
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>14.752874638610976</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.8412889480529122</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>203.03332751935997</v>
+        <v>263.78148502941468</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -2446,24 +2510,27 @@
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>73.986440250328329</v>
+        <v>79.608663279707514</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="P23">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6173393081618279</v>
+      </c>
       <c r="R23">
         <v>10</v>
       </c>
@@ -2497,7 +2564,7 @@
       </c>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2508,12 +2575,12 @@
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.15596244088532</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.6784288931612084</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>404.77103717394476</v>
+        <v>321.45843742466474</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -2532,24 +2599,27 @@
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>92.522359105034184</v>
+        <v>67.897989488112614</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="P24">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.9173505538441002</v>
+      </c>
       <c r="R24">
         <v>10</v>
       </c>
@@ -2583,7 +2653,7 @@
       </c>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2594,12 +2664,12 @@
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>20.360868416413489</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>14.336925249233824</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>907.15920100130563</v>
+        <v>112.16920399928149</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -2618,24 +2688,27 @@
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>131.87031757134895</v>
+        <v>71.929110853377864</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="P25">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7805717804924228</v>
+      </c>
       <c r="R25">
         <v>10</v>
       </c>
@@ -2669,7 +2742,7 @@
       </c>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2681,11 +2754,11 @@
       </c>
       <c r="D26" s="2">
         <f ca="1">NORMINV(RAND(),6,1)</f>
-        <v>6.7361974684739341</v>
+        <v>6.4345780423245973</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>306.72465803710372</v>
+        <v>610.34084237051445</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -2704,16 +2777,31 @@
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>62.227565962441389</v>
+        <v>78.678135030708845</v>
       </c>
       <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0.01</v>
+      </c>
+      <c r="P26">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.3931412337753724</v>
+      </c>
       <c r="W26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2724,12 +2812,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:D33" ca="1" si="5">NORMINV(RAND(),6,1)</f>
-        <v>3.2524843518455611</v>
+        <f t="shared" ref="D27:D33" ca="1" si="6">NORMINV(RAND(),6,1)</f>
+        <v>6.5984999455198432</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>277.02381333765146</v>
+        <v>356.11276935739431</v>
       </c>
       <c r="F27">
         <v>5</v>
@@ -2748,16 +2836,31 @@
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>45.472415229909316</v>
+        <v>69.353821131319933</v>
       </c>
       <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0.01</v>
+      </c>
+      <c r="P27">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q27" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>20.462924865573818</v>
+      </c>
       <c r="W27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2768,12 +2871,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.7584658007946183</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.4153977770306385</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>260.85000976973851</v>
+        <v>527.58902741502891</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -2792,16 +2895,31 @@
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>54.336185109757785</v>
+        <v>70.012838701315289</v>
       </c>
       <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0.01</v>
+      </c>
+      <c r="P28">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q28" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.7025678743289525</v>
+      </c>
       <c r="W28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2812,12 +2930,12 @@
         <v>0</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.4151891397212735</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.2578555573453585</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>432.72047458681715</v>
+        <v>379.92986219564824</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -2836,16 +2954,31 @@
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>71.861635592415055</v>
+        <v>63.246143035708393</v>
       </c>
       <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0.01</v>
+      </c>
+      <c r="P29">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q29" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>13.331654334512946</v>
+      </c>
       <c r="W29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2856,12 +2989,12 @@
         <v>0</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.7610729018107056</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4.8999109855375469</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>201.30489738233294</v>
+        <v>200.31769988342836</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -2880,16 +3013,31 @@
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>49.805860668326183</v>
+        <v>48.064506957820221</v>
       </c>
       <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0.01</v>
+      </c>
+      <c r="P30">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q30" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.946565264419105</v>
+      </c>
       <c r="W30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2900,12 +3048,12 @@
         <v>0</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.1960511789499897</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.5436313821902496</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>881.54013681557205</v>
+        <v>131.86616743460178</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -2924,16 +3072,31 @@
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>90.848360726237473</v>
+        <v>49.258979845003815</v>
       </c>
       <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0.01</v>
+      </c>
+      <c r="P31">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q31" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>12.019442131928464</v>
+      </c>
       <c r="W31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2944,12 +3107,12 @@
         <v>0</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.9309671266876851</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.4706052743686877</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>568.63711066289261</v>
+        <v>225.58060114894525</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -2968,16 +3131,31 @@
       </c>
       <c r="K32" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>76.525900143648386</v>
+        <v>51.058490529194238</v>
       </c>
       <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0.01</v>
+      </c>
+      <c r="P32">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q32" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>18.655579931632978</v>
+      </c>
       <c r="W32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2988,12 +3166,12 @@
         <v>0</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.5698107076123602</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5.9019531338434943</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>232.67049891186534</v>
+        <v>672.0374679398775</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -3012,16 +3190,31 @@
       </c>
       <c r="K33" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>49.646619081948508</v>
+        <v>79.500857467404543</v>
       </c>
       <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0.01</v>
+      </c>
+      <c r="P33">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q33" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.3718359102133331</v>
+      </c>
       <c r="W33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3033,11 +3226,11 @@
       </c>
       <c r="D34" s="2">
         <f ca="1">NORMINV(RAND(),12,5)</f>
-        <v>19.289506283598374</v>
+        <v>6.7047807960926722</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>171.7539049899207</v>
+        <v>407.13584058756663</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -3056,16 +3249,31 @@
       </c>
       <c r="K34" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>69.734177198719777</v>
+        <v>56.549940411435415</v>
       </c>
       <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>-1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0.05</v>
+      </c>
+      <c r="P34">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q34" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2645870501117487</v>
+      </c>
       <c r="W34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3076,12 +3284,12 @@
         <v>1</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" ref="D35:D41" ca="1" si="6">NORMINV(RAND(),12,5)</f>
-        <v>14.773078505686284</v>
+        <f t="shared" ref="D35:D41" ca="1" si="7">NORMINV(RAND(),12,5)</f>
+        <v>8.945113234289833</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>238.28109521369302</v>
+        <v>587.71555376194465</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -3100,16 +3308,31 @@
       </c>
       <c r="K35" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>58.05904905402587</v>
+        <v>81.145751845008959</v>
       </c>
       <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>-1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0.05</v>
+      </c>
+      <c r="P35">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q35" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>13.712418974325292</v>
+      </c>
       <c r="W35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3120,12 +3343,12 @@
         <v>1</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>10.086075716260835</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>18.480338616608385</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>265.72907619855977</v>
+        <v>346.10477800248668</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -3144,16 +3367,31 @@
       </c>
       <c r="K36" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>51.172484637896737</v>
+        <v>68.818941529869718</v>
       </c>
       <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>-1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0.05</v>
+      </c>
+      <c r="P36">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q36" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2370393456892663</v>
+      </c>
       <c r="W36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3164,12 +3402,12 @@
         <v>1</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>15.438463153296837</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.51189250781340334</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>693.1679370438867</v>
+        <v>362.3741814454695</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -3188,16 +3426,31 @@
       </c>
       <c r="K37" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.628578848117741</v>
+        <v>50.963058223872295</v>
       </c>
       <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>-1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0.05</v>
+      </c>
+      <c r="P37">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q37" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>13.797401122202919</v>
+      </c>
       <c r="W37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3208,12 +3461,12 @@
         <v>1</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.4786628846763943</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>15.373725298445235</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>493.99008380318674</v>
+        <v>811.1096001320808</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -3232,16 +3485,31 @@
       </c>
       <c r="K38" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>66.265117071919093</v>
+        <v>97.145993030454349</v>
       </c>
       <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>-1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0.05</v>
+      </c>
+      <c r="P38">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q38" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.4682035116488557</v>
+      </c>
       <c r="W38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3252,12 +3520,12 @@
         <v>1</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>14.036073622778066</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>12.37502791740758</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>174.01939018044706</v>
+        <v>589.99040194373515</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -3276,16 +3544,31 @@
       </c>
       <c r="K39" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>47.396861829234368</v>
+        <v>74.994311509226691</v>
       </c>
       <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <v>-1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0.05</v>
+      </c>
+      <c r="P39">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q39" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.168504142401408</v>
+      </c>
       <c r="W39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3296,12 +3579,12 @@
         <v>1</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>16.635523970131235</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>21.522121435906225</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>303.20772255232123</v>
+        <v>324.78250759389073</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -3320,16 +3603,31 @@
       </c>
       <c r="K40" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>58.208814187481067</v>
+        <v>69.564170391326968</v>
       </c>
       <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M40">
+        <v>-1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0.05</v>
+      </c>
+      <c r="P40">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q40" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.3955144385383598</v>
+      </c>
       <c r="W40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3340,12 +3638,12 @@
         <v>1</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>19.349019359750095</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>10.711906700685139</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>384.69154975191321</v>
+        <v>238.74808766094301</v>
       </c>
       <c r="F41">
         <v>5</v>
@@ -3364,16 +3662,31 @@
       </c>
       <c r="K41" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>65.719121599861111</v>
+        <v>46.665069043287183</v>
       </c>
       <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>-1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0.05</v>
+      </c>
+      <c r="P41">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q41" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.6974631176917541</v>
+      </c>
       <c r="W41" s="3"/>
       <c r="AC41" s="3"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3385,11 +3698,11 @@
       </c>
       <c r="D42" s="2">
         <f ca="1">NORMINV(RAND(),8,2)</f>
-        <v>6.1126848189009495</v>
+        <v>9.5225288909605865</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1176.4805832746947</v>
+        <v>468.26817074920802</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -3408,16 +3721,31 @@
       </c>
       <c r="K42" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>66.022761630944828</v>
+        <v>55.161478497867229</v>
       </c>
       <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0.01</v>
+      </c>
+      <c r="P42">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="Q42" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.5661614726321993</v>
+      </c>
       <c r="W42" s="3"/>
       <c r="AC42" s="3"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3428,12 +3756,12 @@
         <v>0</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" ref="D43:D49" ca="1" si="7">NORMINV(RAND(),8,2)</f>
-        <v>5.5406797069926261</v>
+        <f t="shared" ref="D43:D49" ca="1" si="8">NORMINV(RAND(),8,2)</f>
+        <v>8.2401609777121951</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>818.89980755437193</v>
+        <v>203.49597581276993</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -3452,16 +3780,31 @@
       </c>
       <c r="K43" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>59.881005332372524</v>
+        <v>50.285264574436262</v>
       </c>
       <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0.01</v>
+      </c>
+      <c r="P43">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="Q43" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.224834063287787</v>
+      </c>
       <c r="W43" s="3"/>
       <c r="AC43" s="3"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3472,12 +3815,12 @@
         <v>0</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>8.1979709525413806</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>11.897369688562417</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>423.83685893284081</v>
+        <v>342.74142147525856</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -3496,16 +3839,31 @@
       </c>
       <c r="K44" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>53.393663616046737</v>
+        <v>59.783394259093697</v>
       </c>
       <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0.01</v>
+      </c>
+      <c r="P44">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="Q44" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.0474717128585009</v>
+      </c>
       <c r="W44" s="3"/>
       <c r="AC44" s="3"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3516,12 +3874,12 @@
         <v>0</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>6.0356554651394108</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>6.1471943893642536</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>232.56334682469605</v>
+        <v>609.29517061947752</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -3540,16 +3898,31 @@
       </c>
       <c r="K45" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>46.549315964621357</v>
+        <v>54.263793716404138</v>
       </c>
       <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0.01</v>
+      </c>
+      <c r="P45">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="Q45" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.7541809963047497</v>
+      </c>
       <c r="W45" s="3"/>
       <c r="AC45" s="3"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3560,12 +3933,12 @@
         <v>0</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>7.3504478193243736</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>6.8544456415318038</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>347.95314368627237</v>
+        <v>433.65785065792477</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -3584,16 +3957,31 @@
       </c>
       <c r="K46" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>50.830777677627971</v>
+        <v>46.272300407248963</v>
       </c>
       <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0.01</v>
+      </c>
+      <c r="P46">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="Q46" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.9411590299488006</v>
+      </c>
       <c r="W46" s="3"/>
       <c r="AC46" s="3"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3604,12 +3992,12 @@
         <v>0</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>6.9777484371170901</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7.4222896418383186</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>138.29539919795127</v>
+        <v>342.9725908296839</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -3628,16 +4016,31 @@
       </c>
       <c r="K47" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>42.620360976561329</v>
+        <v>41.371375942237989</v>
       </c>
       <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0.01</v>
+      </c>
+      <c r="P47">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="Q47" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.0754501228440496</v>
+      </c>
       <c r="W47" s="3"/>
       <c r="AC47" s="3"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3648,12 +4051,12 @@
         <v>0</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.3705878868456196</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5.5821153961180627</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>745.18291327510292</v>
+        <v>568.84627776289653</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -3672,16 +4075,31 @@
       </c>
       <c r="K48" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>49.848110192503754</v>
+        <v>49.2564635478101</v>
       </c>
       <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0.01</v>
+      </c>
+      <c r="P48">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="Q48" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5001405102844303</v>
+      </c>
       <c r="W48" s="3"/>
       <c r="AC48" s="3"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3692,12 +4110,12 @@
         <v>0</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>6.0453318621134544</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>6.1217480027012519</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>536.73216108225802</v>
+        <v>358.2848712836323</v>
       </c>
       <c r="F49">
         <v>5</v>
@@ -3716,12 +4134,27 @@
       </c>
       <c r="K49" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>47.227443204301672</v>
+        <v>50.987757473454877</v>
       </c>
       <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0.01</v>
+      </c>
+      <c r="P49">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="Q49" s="8">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.868331570283341</v>
+      </c>
       <c r="W49" s="3"/>
       <c r="AC49" s="3"/>
     </row>

--- a/data/fleas_model_data_backup.xlsx
+++ b/data/fleas_model_data_backup.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B1C35-2244-4247-8033-70BAD341D2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC3EBB2-6429-0F4F-BA3B-C50C7CA6FD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="37512" windowHeight="15456" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="37520" windowHeight="15460" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
   </bookViews>
   <sheets>
-    <sheet name="mixed-fac2" sheetId="5" r:id="rId1"/>
+    <sheet name="mult-regression" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="20">
   <si>
     <t>juvenile</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>count_leg</t>
+  </si>
+  <si>
+    <t>count_num</t>
   </si>
 </sst>
 </file>
@@ -159,16 +162,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -503,110 +509,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE453879-BAE6-2F44-9A5D-0C701CFC8D13}">
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="N1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="T1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -618,11 +630,11 @@
       </c>
       <c r="D2" s="2">
         <f ca="1">NORMINV(RAND(),17,3)</f>
-        <v>18.42533675890482</v>
-      </c>
-      <c r="E2" s="7">
+        <v>18.056052359835149</v>
+      </c>
+      <c r="E2" s="6">
         <f ca="1">_xlfn.LOGNORM.INV(RAND(),6,0.5)</f>
-        <v>552.05525933458205</v>
+        <v>1165.115262198397</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -639,9 +651,9 @@
       <c r="J2">
         <v>0.05</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <f ca="1">F2+G2 + H2+I2*D2+J2*E2+NORMINV(RAND(),0,5)</f>
-        <v>75.309599101758906</v>
+        <v>104.71204885567055</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -658,12 +670,12 @@
       <c r="P2">
         <v>1E-3</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="7">
         <f ca="1">L2+M2+N2+O2*D2+P2*E2+NORMINV(RAND(),0,5)</f>
-        <v>8.2483790383560738</v>
+        <v>10.907708032144726</v>
       </c>
       <c r="R2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S2">
         <v>5</v>
@@ -672,30 +684,40 @@
         <v>15</v>
       </c>
       <c r="U2">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="V2">
-        <v>10</v>
-      </c>
-      <c r="W2" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W2" s="7">
+        <f ca="1">R2+S2 + T2+U2*P2+V2*Q2+NORMINV(RAND(),0,5)</f>
+        <v>26.246231047648781</v>
+      </c>
       <c r="X2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y2">
-        <v>5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z2">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="AA2">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="AB2">
-        <v>10</v>
-      </c>
-      <c r="AC2" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC2" s="9">
+        <f ca="1">ABS(X2+Y2 + Z2+AA2*V2+AB2*W2+NORMINV(RAND(),0,1))</f>
+        <v>0.10799429648526915</v>
+      </c>
+      <c r="AD2" s="11">
+        <f ca="1">_xlfn.LOGNORM.INV(RAND(),AC2,0.1)*10</f>
+        <v>13.052106339156529</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -707,11 +729,11 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D9" ca="1" si="0">NORMINV(RAND(),17,3)</f>
-        <v>16.43667668696478</v>
-      </c>
-      <c r="E3" s="7">
+        <v>18.901211215278479</v>
+      </c>
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E49" ca="1" si="1">_xlfn.LOGNORM.INV(RAND(),6,0.5)</f>
-        <v>191.36952526126794</v>
+        <v>308.17116991518623</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -728,9 +750,9 @@
       <c r="J3">
         <v>0.05</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K49" ca="1" si="2">F3+G3 + H3+I3*D3+J3*E3+NORMINV(RAND(),0,5)</f>
-        <v>54.178016581388476</v>
+        <v>68.154436770709992</v>
       </c>
       <c r="L3">
         <v>5</v>
@@ -747,12 +769,12 @@
       <c r="P3">
         <v>1E-3</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="7">
         <f t="shared" ref="Q3:Q49" ca="1" si="3">L3+M3 + N3+O3*J3+P3*K3+NORMINV(RAND(),0,5)</f>
-        <v>2.4332145410134229</v>
+        <v>12.55104083341773</v>
       </c>
       <c r="R3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S3">
         <v>5</v>
@@ -761,30 +783,40 @@
         <v>15</v>
       </c>
       <c r="U3">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="V3">
-        <v>10</v>
-      </c>
-      <c r="W3" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W3" s="7">
+        <f t="shared" ref="W3:W49" ca="1" si="4">R3+S3 + T3+U3*P3+V3*Q3+NORMINV(RAND(),0,5)</f>
+        <v>23.794825375923466</v>
+      </c>
       <c r="X3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y3">
-        <v>5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z3">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="AA3">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="AB3">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC3" s="9">
+        <f t="shared" ref="AC3:AC48" ca="1" si="5">ABS(X3+Y3 + Z3+AA3*V3+AB3*W3+NORMINV(RAND(),0,1))</f>
+        <v>4.0463799327076E-2</v>
+      </c>
+      <c r="AD3" s="11">
+        <f t="shared" ref="AD3:AD49" ca="1" si="6">_xlfn.LOGNORM.INV(RAND(),AC3,0.1)*10</f>
+        <v>9.6023270999350334</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -796,11 +828,11 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.133787375089863</v>
-      </c>
-      <c r="E4" s="7">
+        <v>20.861138980018552</v>
+      </c>
+      <c r="E4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>299.26058924021595</v>
+        <v>350.75673381817143</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -817,9 +849,9 @@
       <c r="J4">
         <v>0.05</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>69.202069953224139</v>
+        <v>62.136017637830427</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -836,12 +868,12 @@
       <c r="P4">
         <v>1E-3</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1611949892992701</v>
+        <v>10.652464615093336</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S4">
         <v>5</v>
@@ -850,30 +882,40 @@
         <v>15</v>
       </c>
       <c r="U4">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="V4">
-        <v>10</v>
-      </c>
-      <c r="W4" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W4" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>27.321951246384248</v>
+      </c>
       <c r="X4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z4">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="AA4">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="AB4">
-        <v>10</v>
-      </c>
-      <c r="AC4" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC4" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.8842883726939892</v>
+      </c>
+      <c r="AD4" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>149.72110019728456</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -885,11 +927,11 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.975251904449092</v>
-      </c>
-      <c r="E5" s="7">
+        <v>14.952148587608411</v>
+      </c>
+      <c r="E5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>129.4001157433635</v>
+        <v>231.6574049067149</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -906,9 +948,9 @@
       <c r="J5">
         <v>0.05</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>58.220580421706295</v>
+        <v>54.680043380115954</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -925,12 +967,12 @@
       <c r="P5">
         <v>1E-3</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25234098242634939</v>
+        <v>8.4416981359879788</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S5">
         <v>5</v>
@@ -939,30 +981,40 @@
         <v>15</v>
       </c>
       <c r="U5">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="V5">
-        <v>10</v>
-      </c>
-      <c r="W5" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.226674913210587</v>
+      </c>
       <c r="X5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y5">
-        <v>5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z5">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="AA5">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="AB5">
-        <v>10</v>
-      </c>
-      <c r="AC5" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC5" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.8019134464775828</v>
+      </c>
+      <c r="AD5" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>157.9479607357693</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -974,11 +1026,11 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.700348414664958</v>
-      </c>
-      <c r="E6" s="7">
+        <v>18.763810913891387</v>
+      </c>
+      <c r="E6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>450.88596289066913</v>
+        <v>456.45329299387635</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -995,9 +1047,9 @@
       <c r="J6">
         <v>0.05</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>66.019643122721888</v>
+        <v>69.624883436725426</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -1014,12 +1066,12 @@
       <c r="P6">
         <v>1E-3</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1074048094748701</v>
+        <v>3.3502361369610139</v>
       </c>
       <c r="R6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S6">
         <v>5</v>
@@ -1028,30 +1080,40 @@
         <v>15</v>
       </c>
       <c r="U6">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="V6">
-        <v>10</v>
-      </c>
-      <c r="W6" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>24.021171612649248</v>
+      </c>
       <c r="X6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z6">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="AA6">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="AB6">
-        <v>10</v>
-      </c>
-      <c r="AC6" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC6" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4752751307184959</v>
+      </c>
+      <c r="AD6" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>41.0162622449159</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1063,11 +1125,11 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.455822475766318</v>
-      </c>
-      <c r="E7" s="7">
+        <v>15.631306566783216</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>382.23529794475127</v>
+        <v>240.11514486691536</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1084,9 +1146,9 @@
       <c r="J7">
         <v>0.05</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>67.466310382125883</v>
+        <v>56.260969223493952</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -1103,12 +1165,12 @@
       <c r="P7">
         <v>1E-3</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5872274924519871</v>
+        <v>2.703320797881227</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S7">
         <v>5</v>
@@ -1117,30 +1179,40 @@
         <v>15</v>
       </c>
       <c r="U7">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="V7">
-        <v>10</v>
-      </c>
-      <c r="W7" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>33.897345869532501</v>
+      </c>
       <c r="X7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y7">
-        <v>5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z7">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="AA7">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="AB7">
-        <v>10</v>
-      </c>
-      <c r="AC7" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC7" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1605609578395573</v>
+      </c>
+      <c r="AD7" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.955256822753299</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1152,11 +1224,11 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.530249503784553</v>
-      </c>
-      <c r="E8" s="7">
+        <v>15.895845823820526</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>459.71847390170774</v>
+        <v>557.89263005069779</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1173,9 +1245,9 @@
       <c r="J8">
         <v>0.05</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>61.334839889705265</v>
+        <v>70.610407166420146</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1192,12 +1264,12 @@
       <c r="P8">
         <v>1E-3</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.0181690241657853</v>
+        <v>0.82637837773723799</v>
       </c>
       <c r="R8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S8">
         <v>5</v>
@@ -1206,30 +1278,40 @@
         <v>15</v>
       </c>
       <c r="U8">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="V8">
-        <v>10</v>
-      </c>
-      <c r="W8" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.531910237959927</v>
+      </c>
       <c r="X8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y8">
-        <v>5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z8">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="AA8">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="AB8">
-        <v>10</v>
-      </c>
-      <c r="AC8" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC8" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.7249079908937568</v>
+      </c>
+      <c r="AD8" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>158.61452570998193</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1241,11 +1323,11 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.404646411625652</v>
-      </c>
-      <c r="E9" s="7">
+        <v>18.57259086781653</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>519.26395101307151</v>
+        <v>581.52929784091066</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1262,9 +1344,9 @@
       <c r="J9">
         <v>0.05</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>79.027918991291727</v>
+        <v>75.045314111891372</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -1281,12 +1363,12 @@
       <c r="P9">
         <v>1E-3</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5779739316777661</v>
+        <v>10.580238892273426</v>
       </c>
       <c r="R9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S9">
         <v>5</v>
@@ -1295,30 +1377,40 @@
         <v>15</v>
       </c>
       <c r="U9">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="V9">
-        <v>10</v>
-      </c>
-      <c r="W9" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>28.099804670316594</v>
+      </c>
       <c r="X9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y9">
-        <v>5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z9">
-        <v>15</v>
+        <v>0.2</v>
       </c>
       <c r="AA9">
-        <v>12.5</v>
+        <v>0.05</v>
       </c>
       <c r="AB9">
-        <v>10</v>
-      </c>
-      <c r="AC9" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC9" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.91648316575137467</v>
+      </c>
+      <c r="AD9" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>24.178443137359253</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1330,11 +1422,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NORMINV(RAND(),5,1)</f>
-        <v>5.8585225556889302</v>
-      </c>
-      <c r="E10" s="7">
+        <v>3.9056663577275206</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>698.83458016954967</v>
+        <v>342.30942329118295</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -1351,9 +1443,9 @@
       <c r="J10">
         <v>0.05</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>73.550115378715589</v>
+        <v>46.413772977133078</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -1370,44 +1462,54 @@
       <c r="P10">
         <v>1E-3</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3668339026835676</v>
+        <v>14.539614567794869</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10">
         <v>20</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>0.85</v>
       </c>
       <c r="V10">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>35.249304830769596</v>
+      </c>
       <c r="X10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y10">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="Z10">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="AB10">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC10" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.5602446445741118</v>
+      </c>
+      <c r="AD10" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>110.32262205645873</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1418,12 +1520,12 @@
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:D17" ca="1" si="4">NORMINV(RAND(),5,1)</f>
-        <v>5.8971193990710677</v>
-      </c>
-      <c r="E11" s="7">
+        <f t="shared" ref="D11:D17" ca="1" si="7">NORMINV(RAND(),5,1)</f>
+        <v>6.7755646932644975</v>
+      </c>
+      <c r="E11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>584.6881346115382</v>
+        <v>190.74637601149337</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -1440,9 +1542,9 @@
       <c r="J11">
         <v>0.05</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>61.624306772853075</v>
+        <v>48.226467717387983</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -1459,44 +1561,54 @@
       <c r="P11">
         <v>1E-3</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6445304130835252</v>
+        <v>2.786552702921794</v>
       </c>
       <c r="R11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11">
         <v>20</v>
       </c>
       <c r="U11">
-        <v>10</v>
+        <v>0.85</v>
       </c>
       <c r="V11">
-        <v>5</v>
-      </c>
-      <c r="W11" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W11" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>35.776852070616044</v>
+      </c>
       <c r="X11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="Z11">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="AB11">
-        <v>5</v>
-      </c>
-      <c r="AC11" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC11" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.2284945527550994</v>
+      </c>
+      <c r="AD11" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>266.1033208578321</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1507,12 +1619,12 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.5865756240859819</v>
-      </c>
-      <c r="E12" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.3542718446097686</v>
+      </c>
+      <c r="E12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>309.01184378861609</v>
+        <v>442.55246014752225</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -1529,9 +1641,9 @@
       <c r="J12">
         <v>0.05</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45.169887056133604</v>
+        <v>52.777201996134913</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -1548,44 +1660,54 @@
       <c r="P12">
         <v>1E-3</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>16.598593600535374</v>
+        <v>12.939643426952266</v>
       </c>
       <c r="R12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12">
         <v>20</v>
       </c>
       <c r="U12">
-        <v>10</v>
+        <v>0.85</v>
       </c>
       <c r="V12">
-        <v>5</v>
-      </c>
-      <c r="W12" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W12" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>28.002673440116702</v>
+      </c>
       <c r="X12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y12">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="Z12">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="AB12">
-        <v>5</v>
-      </c>
-      <c r="AC12" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC12" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1783035808932898</v>
+      </c>
+      <c r="AD12" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>42.90466315207393</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1596,12 +1718,12 @@
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.0632605291971391</v>
-      </c>
-      <c r="E13" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.5208486061691824</v>
+      </c>
+      <c r="E13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>209.30369493669974</v>
+        <v>401.75929135461109</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -1618,9 +1740,9 @@
       <c r="J13">
         <v>0.05</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>39.907195162750007</v>
+        <v>58.677981061732723</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1637,44 +1759,54 @@
       <c r="P13">
         <v>1E-3</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>13.439825302988343</v>
+        <v>8.2367178515604973</v>
       </c>
       <c r="R13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T13">
         <v>20</v>
       </c>
       <c r="U13">
-        <v>10</v>
+        <v>0.85</v>
       </c>
       <c r="V13">
-        <v>5</v>
-      </c>
-      <c r="W13" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W13" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>28.647330934341724</v>
+      </c>
       <c r="X13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="Z13">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="AB13">
-        <v>5</v>
-      </c>
-      <c r="AC13" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC13" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.3723281066127997</v>
+      </c>
+      <c r="AD13" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>30.973597593014603</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1685,12 +1817,12 @@
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.4069554101553381</v>
-      </c>
-      <c r="E14" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.7487167923015177</v>
+      </c>
+      <c r="E14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>245.77448366825718</v>
+        <v>277.01617225697845</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -1707,9 +1839,9 @@
       <c r="J14">
         <v>0.05</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>47.681092436618883</v>
+        <v>46.639777673402556</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -1726,44 +1858,54 @@
       <c r="P14">
         <v>1E-3</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>13.204723100527323</v>
+        <v>7.3343832420962132</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T14">
         <v>20</v>
       </c>
       <c r="U14">
-        <v>10</v>
+        <v>0.85</v>
       </c>
       <c r="V14">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W14" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.445053856784973</v>
+      </c>
       <c r="X14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y14">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="Z14">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="AA14">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="AB14">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC14" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.7628533247858815</v>
+      </c>
+      <c r="AD14" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>59.26896617379937</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1774,12 +1916,12 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.8396049972132413</v>
-      </c>
-      <c r="E15" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.6953473894499762</v>
+      </c>
+      <c r="E15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>689.99616602622473</v>
+        <v>560.34474708413097</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -1796,9 +1938,9 @@
       <c r="J15">
         <v>0.05</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>72.98812328536107</v>
+        <v>63.311559917777366</v>
       </c>
       <c r="L15">
         <v>5</v>
@@ -1815,44 +1957,54 @@
       <c r="P15">
         <v>1E-3</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>12.18744066449217</v>
+        <v>5.5271314253257273</v>
       </c>
       <c r="R15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T15">
         <v>20</v>
       </c>
       <c r="U15">
-        <v>10</v>
+        <v>0.85</v>
       </c>
       <c r="V15">
-        <v>5</v>
-      </c>
-      <c r="W15" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W15" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>26.221326353601579</v>
+      </c>
       <c r="X15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="Z15">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="AA15">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="AB15">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC15" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1656817814439575</v>
+      </c>
+      <c r="AD15" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>35.967353762220128</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1863,12 +2015,12 @@
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.0856760535978012</v>
-      </c>
-      <c r="E16" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.4688145931986103</v>
+      </c>
+      <c r="E16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>584.52622254612118</v>
+        <v>478.07157096814558</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -1885,9 +2037,9 @@
       <c r="J16">
         <v>0.05</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>51.190928460426335</v>
+        <v>61.836832142286411</v>
       </c>
       <c r="L16">
         <v>5</v>
@@ -1904,44 +2056,54 @@
       <c r="P16">
         <v>1E-3</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>13.879952926619511</v>
+        <v>8.4611305559977179</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16">
         <v>20</v>
       </c>
       <c r="U16">
-        <v>10</v>
+        <v>0.85</v>
       </c>
       <c r="V16">
-        <v>5</v>
-      </c>
-      <c r="W16" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W16" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>39.297942541900106</v>
+      </c>
       <c r="X16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y16">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="Z16">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="AB16">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC16" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4255533853276863</v>
+      </c>
+      <c r="AD16" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>42.655111690466505</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1952,12 +2114,12 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.827317778649495</v>
-      </c>
-      <c r="E17" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>6.5816909278498246</v>
+      </c>
+      <c r="E17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>507.03894928250685</v>
+        <v>150.68004665449047</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1974,9 +2136,9 @@
       <c r="J17">
         <v>0.05</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>62.936349407543567</v>
+        <v>31.525299058888038</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -1993,44 +2155,54 @@
       <c r="P17">
         <v>1E-3</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>14.069792083237564</v>
+        <v>4.6817966057150358</v>
       </c>
       <c r="R17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17">
         <v>20</v>
       </c>
       <c r="U17">
-        <v>10</v>
+        <v>0.85</v>
       </c>
       <c r="V17">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="W17" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>30.381836911229943</v>
+      </c>
       <c r="X17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y17">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="Z17">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="AA17">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="AB17">
-        <v>5</v>
-      </c>
-      <c r="AC17" s="3"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AC17" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.6157674039507821</v>
+      </c>
+      <c r="AD17" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>157.08512102886442</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2042,11 +2214,11 @@
       </c>
       <c r="D18" s="2">
         <f ca="1">NORMINV(RAND(),12,4)</f>
-        <v>14.977459253039019</v>
-      </c>
-      <c r="E18" s="7">
+        <v>6.8877908867896283</v>
+      </c>
+      <c r="E18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>440.0789957599734</v>
+        <v>303.01066534138238</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -2063,9 +2235,9 @@
       <c r="J18">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>84.904039094967303</v>
+        <v>80.338089624674652</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -2082,44 +2254,54 @@
       <c r="P18">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>15.347164741425468</v>
+        <v>-4.7595776649738797</v>
       </c>
       <c r="R18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S18">
         <v>15</v>
       </c>
       <c r="T18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U18">
-        <v>20</v>
+        <v>1.25</v>
       </c>
       <c r="V18">
-        <v>10</v>
-      </c>
-      <c r="W18" s="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>34.300020908576293</v>
+      </c>
       <c r="X18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y18">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="Z18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="AB18">
-        <v>10</v>
-      </c>
-      <c r="AC18" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC18" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.3088424359739241</v>
+      </c>
+      <c r="AD18" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>40.531582200114727</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2130,12 +2312,12 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:D25" ca="1" si="5">NORMINV(RAND(),12,4)</f>
-        <v>5.1963190407404305</v>
-      </c>
-      <c r="E19" s="7">
+        <f t="shared" ref="D19:D25" ca="1" si="8">NORMINV(RAND(),12,4)</f>
+        <v>12.055928784282839</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>575.44534100847852</v>
+        <v>510.7812742733243</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -2152,9 +2334,9 @@
       <c r="J19">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>87.629853376975845</v>
+        <v>98.291271964340524</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -2171,44 +2353,54 @@
       <c r="P19">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60783844810932752</v>
+        <v>16.468430565742416</v>
       </c>
       <c r="R19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S19">
         <v>15</v>
       </c>
       <c r="T19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U19">
-        <v>20</v>
+        <v>1.25</v>
       </c>
       <c r="V19">
-        <v>10</v>
-      </c>
-      <c r="W19" s="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>37.819753083488237</v>
+      </c>
       <c r="X19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y19">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="Z19">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="AB19">
-        <v>10</v>
-      </c>
-      <c r="AC19" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC19" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.2735404011440892</v>
+      </c>
+      <c r="AD19" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>786.42266162669421</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2219,12 +2411,12 @@
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.5532464184412564</v>
-      </c>
-      <c r="E20" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>13.803841978618303</v>
+      </c>
+      <c r="E20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>505.38626949594953</v>
+        <v>841.0480784106677</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -2241,9 +2433,9 @@
       <c r="J20">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>84.647324223445466</v>
+        <v>119.85759808226767</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -2260,44 +2452,54 @@
       <c r="P20">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.505270834790382</v>
+        <v>8.5166396388996617</v>
       </c>
       <c r="R20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S20">
         <v>15</v>
       </c>
       <c r="T20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U20">
-        <v>20</v>
+        <v>1.25</v>
       </c>
       <c r="V20">
-        <v>10</v>
-      </c>
-      <c r="W20" s="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>41.808465292149606</v>
+      </c>
       <c r="X20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y20">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="Z20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="AB20">
-        <v>10</v>
-      </c>
-      <c r="AC20" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC20" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.2559016006760082</v>
+      </c>
+      <c r="AD20" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>256.4637053575384</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2308,12 +2510,12 @@
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.42442663079100207</v>
-      </c>
-      <c r="E21" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>17.137905697401187</v>
+      </c>
+      <c r="E21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>862.81707250210491</v>
+        <v>573.63369538269774</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -2330,9 +2532,9 @@
       <c r="J21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>100.66773625028688</v>
+        <v>108.66973034494093</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -2349,44 +2551,54 @@
       <c r="P21">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3857499029810585</v>
+        <v>0.79660179888802674</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S21">
         <v>15</v>
       </c>
       <c r="T21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U21">
-        <v>20</v>
+        <v>1.25</v>
       </c>
       <c r="V21">
-        <v>10</v>
-      </c>
-      <c r="W21" s="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W21" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>41.933879110519271</v>
+      </c>
       <c r="X21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y21">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="Z21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="AB21">
-        <v>10</v>
-      </c>
-      <c r="AC21" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC21" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.3000726024141205E-2</v>
+      </c>
+      <c r="AD21" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>11.003009561154295</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2397,12 +2609,12 @@
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.6585313369547325</v>
-      </c>
-      <c r="E22" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>14.874561839712827</v>
+      </c>
+      <c r="E22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>250.73769078243768</v>
+        <v>144.87545463942178</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -2419,9 +2631,9 @@
       <c r="J22">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>75.45941740935659</v>
+        <v>67.562122215494341</v>
       </c>
       <c r="L22">
         <v>5</v>
@@ -2438,44 +2650,54 @@
       <c r="P22">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1964730210091741</v>
+        <v>13.841518672564801</v>
       </c>
       <c r="R22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S22">
         <v>15</v>
       </c>
       <c r="T22">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U22">
-        <v>20</v>
+        <v>1.25</v>
       </c>
       <c r="V22">
-        <v>10</v>
-      </c>
-      <c r="W22" s="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W22" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>42.925577526054852</v>
+      </c>
       <c r="X22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y22">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="Z22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="AB22">
-        <v>10</v>
-      </c>
-      <c r="AC22" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC22" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0321901968050868</v>
+      </c>
+      <c r="AD22" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>26.168979511006292</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2486,12 +2708,12 @@
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.8412889480529122</v>
-      </c>
-      <c r="E23" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>13.643476696505097</v>
+      </c>
+      <c r="E23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>263.78148502941468</v>
+        <v>418.41654768197992</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -2508,9 +2730,9 @@
       <c r="J23">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>79.608663279707514</v>
+        <v>81.993646800561379</v>
       </c>
       <c r="L23">
         <v>5</v>
@@ -2527,44 +2749,54 @@
       <c r="P23">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6173393081618279</v>
+        <v>9.5764956109148507</v>
       </c>
       <c r="R23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S23">
         <v>15</v>
       </c>
       <c r="T23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U23">
-        <v>20</v>
+        <v>1.25</v>
       </c>
       <c r="V23">
-        <v>10</v>
-      </c>
-      <c r="W23" s="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W23" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>49.318906970696936</v>
+      </c>
       <c r="X23">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y23">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="Z23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="AB23">
-        <v>10</v>
-      </c>
-      <c r="AC23" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC23" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.6325540796470919</v>
+      </c>
+      <c r="AD23" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>128.1825568479706</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2575,12 +2807,12 @@
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.6784288931612084</v>
-      </c>
-      <c r="E24" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>20.199780737215796</v>
+      </c>
+      <c r="E24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>321.45843742466474</v>
+        <v>368.5031456476832</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -2597,9 +2829,9 @@
       <c r="J24">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>67.897989488112614</v>
+        <v>91.460744718021999</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2616,44 +2848,54 @@
       <c r="P24">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9173505538441002</v>
+        <v>11.814451137275078</v>
       </c>
       <c r="R24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S24">
         <v>15</v>
       </c>
       <c r="T24">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U24">
-        <v>20</v>
+        <v>1.25</v>
       </c>
       <c r="V24">
-        <v>10</v>
-      </c>
-      <c r="W24" s="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W24" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>40.977241401222422</v>
+      </c>
       <c r="X24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y24">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="Z24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="AB24">
-        <v>10</v>
-      </c>
-      <c r="AC24" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC24" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.3563488810017743</v>
+      </c>
+      <c r="AD24" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>95.92989088998165</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2664,12 +2906,12 @@
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>14.336925249233824</v>
-      </c>
-      <c r="E25" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>16.604100087566895</v>
+      </c>
+      <c r="E25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>112.16920399928149</v>
+        <v>355.64391859242596</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -2686,9 +2928,9 @@
       <c r="J25">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>71.929110853377864</v>
+        <v>80.581891442381732</v>
       </c>
       <c r="L25">
         <v>5</v>
@@ -2705,44 +2947,54 @@
       <c r="P25">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7805717804924228</v>
+        <v>5.8259572280914522</v>
       </c>
       <c r="R25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S25">
         <v>15</v>
       </c>
       <c r="T25">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U25">
-        <v>20</v>
+        <v>1.25</v>
       </c>
       <c r="V25">
-        <v>10</v>
-      </c>
-      <c r="W25" s="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W25" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>43.224270496062296</v>
+      </c>
       <c r="X25">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y25">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="Z25">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="AB25">
-        <v>10</v>
-      </c>
-      <c r="AC25" s="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC25" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.8363677742068625</v>
+      </c>
+      <c r="AD25" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>61.581142826525408</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2754,11 +3006,11 @@
       </c>
       <c r="D26" s="2">
         <f ca="1">NORMINV(RAND(),6,1)</f>
-        <v>6.4345780423245973</v>
-      </c>
-      <c r="E26" s="7">
+        <v>5.6314663840851891</v>
+      </c>
+      <c r="E26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>610.34084237051445</v>
+        <v>461.32662963446967</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -2775,9 +3027,9 @@
       <c r="J26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>78.678135030708845</v>
+        <v>63.928312556830896</v>
       </c>
       <c r="L26">
         <v>5</v>
@@ -2794,14 +3046,54 @@
       <c r="P26">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3931412337753724</v>
-      </c>
-      <c r="W26" s="3"/>
-      <c r="AC26" s="3"/>
+        <v>10.587456291919779</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+      <c r="S26">
+        <v>15</v>
+      </c>
+      <c r="T26">
+        <v>10</v>
+      </c>
+      <c r="U26">
+        <v>0.85</v>
+      </c>
+      <c r="V26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W26" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>33.113638175605722</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>0.1</v>
+      </c>
+      <c r="AA26">
+        <v>0.01</v>
+      </c>
+      <c r="AB26">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC26" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2713764202373685</v>
+      </c>
+      <c r="AD26" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>86.667226033952801</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2812,12 +3104,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:D33" ca="1" si="6">NORMINV(RAND(),6,1)</f>
-        <v>6.5984999455198432</v>
-      </c>
-      <c r="E27" s="7">
+        <f t="shared" ref="D27:D33" ca="1" si="9">NORMINV(RAND(),6,1)</f>
+        <v>4.8961370773326633</v>
+      </c>
+      <c r="E27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>356.11276935739431</v>
+        <v>569.67750734429637</v>
       </c>
       <c r="F27">
         <v>5</v>
@@ -2834,9 +3126,9 @@
       <c r="J27">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>69.353821131319933</v>
+        <v>74.127808602029958</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -2853,14 +3145,54 @@
       <c r="P27">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>20.462924865573818</v>
-      </c>
-      <c r="W27" s="3"/>
-      <c r="AC27" s="3"/>
+        <v>14.1342812762999</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>15</v>
+      </c>
+      <c r="T27">
+        <v>10</v>
+      </c>
+      <c r="U27">
+        <v>0.85</v>
+      </c>
+      <c r="V27">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W27" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>35.397248744754464</v>
+      </c>
+      <c r="X27">
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>0.1</v>
+      </c>
+      <c r="AA27">
+        <v>0.01</v>
+      </c>
+      <c r="AB27">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC27" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.7943289475726347</v>
+      </c>
+      <c r="AD27" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>482.67320363897977</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2871,12 +3203,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.4153977770306385</v>
-      </c>
-      <c r="E28" s="7">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.1380727437018177</v>
+      </c>
+      <c r="E28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>527.58902741502891</v>
+        <v>393.13746172207527</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -2893,9 +3225,9 @@
       <c r="J28">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>70.012838701315289</v>
+        <v>64.154063845157538</v>
       </c>
       <c r="L28">
         <v>5</v>
@@ -2912,14 +3244,54 @@
       <c r="P28">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7025678743289525</v>
-      </c>
-      <c r="W28" s="3"/>
-      <c r="AC28" s="3"/>
+        <v>16.145650723399658</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>15</v>
+      </c>
+      <c r="T28">
+        <v>10</v>
+      </c>
+      <c r="U28">
+        <v>0.85</v>
+      </c>
+      <c r="V28">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W28" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>33.235162125297364</v>
+      </c>
+      <c r="X28">
+        <v>2</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>0.1</v>
+      </c>
+      <c r="AA28">
+        <v>0.01</v>
+      </c>
+      <c r="AB28">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC28" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.977017354866712</v>
+      </c>
+      <c r="AD28" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>199.29453069180371</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2930,12 +3302,12 @@
         <v>0</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2578555573453585</v>
-      </c>
-      <c r="E29" s="7">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.85411864616733</v>
+      </c>
+      <c r="E29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>379.92986219564824</v>
+        <v>612.9211252209227</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -2952,9 +3324,9 @@
       <c r="J29">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>63.246143035708393</v>
+        <v>80.790114394199534</v>
       </c>
       <c r="L29">
         <v>5</v>
@@ -2971,14 +3343,54 @@
       <c r="P29">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>13.331654334512946</v>
-      </c>
-      <c r="W29" s="3"/>
-      <c r="AC29" s="3"/>
+        <v>5.7976175201243292</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>15</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
+      </c>
+      <c r="U29">
+        <v>0.85</v>
+      </c>
+      <c r="V29">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W29" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.729682249635914</v>
+      </c>
+      <c r="X29">
+        <v>2</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>0.1</v>
+      </c>
+      <c r="AA29">
+        <v>0.01</v>
+      </c>
+      <c r="AB29">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC29" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.7359256578080711</v>
+      </c>
+      <c r="AD29" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>1202.9552314220507</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2989,12 +3401,12 @@
         <v>0</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.8999109855375469</v>
-      </c>
-      <c r="E30" s="7">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.6268685235903808</v>
+      </c>
+      <c r="E30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>200.31769988342836</v>
+        <v>295.3235853817352</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -3011,9 +3423,9 @@
       <c r="J30">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>48.064506957820221</v>
+        <v>56.087541537199655</v>
       </c>
       <c r="L30">
         <v>5</v>
@@ -3030,14 +3442,54 @@
       <c r="P30">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>10.946565264419105</v>
-      </c>
-      <c r="W30" s="3"/>
-      <c r="AC30" s="3"/>
+        <v>9.3677435863480127</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>15</v>
+      </c>
+      <c r="T30">
+        <v>10</v>
+      </c>
+      <c r="U30">
+        <v>0.85</v>
+      </c>
+      <c r="V30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W30" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>25.906850413202044</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>0.1</v>
+      </c>
+      <c r="AA30">
+        <v>0.01</v>
+      </c>
+      <c r="AB30">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC30" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.1342171472994744</v>
+      </c>
+      <c r="AD30" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>210.86520859985427</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3048,12 +3500,12 @@
         <v>0</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.5436313821902496</v>
-      </c>
-      <c r="E31" s="7">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.3050842714048274</v>
+      </c>
+      <c r="E31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>131.86616743460178</v>
+        <v>963.73739468958263</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -3070,9 +3522,9 @@
       <c r="J31">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>49.258979845003815</v>
+        <v>102.91602210001497</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -3089,14 +3541,54 @@
       <c r="P31">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q31" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>12.019442131928464</v>
-      </c>
-      <c r="W31" s="3"/>
-      <c r="AC31" s="3"/>
+        <v>-0.41785756343039537</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
+      </c>
+      <c r="S31">
+        <v>15</v>
+      </c>
+      <c r="T31">
+        <v>10</v>
+      </c>
+      <c r="U31">
+        <v>0.85</v>
+      </c>
+      <c r="V31">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W31" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>31.61228073494329</v>
+      </c>
+      <c r="X31">
+        <v>2</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>0.1</v>
+      </c>
+      <c r="AA31">
+        <v>0.01</v>
+      </c>
+      <c r="AB31">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC31" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.5279891469365947</v>
+      </c>
+      <c r="AD31" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>315.7378712218183</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3107,12 +3599,12 @@
         <v>0</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.4706052743686877</v>
-      </c>
-      <c r="E32" s="7">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.9115404633860003</v>
+      </c>
+      <c r="E32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>225.58060114894525</v>
+        <v>419.9122838346853</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -3129,9 +3621,9 @@
       <c r="J32">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>51.058490529194238</v>
+        <v>63.063445513350374</v>
       </c>
       <c r="L32">
         <v>5</v>
@@ -3148,14 +3640,54 @@
       <c r="P32">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q32" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>18.655579931632978</v>
-      </c>
-      <c r="W32" s="3"/>
-      <c r="AC32" s="3"/>
+        <v>10.390481116395931</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>15</v>
+      </c>
+      <c r="T32">
+        <v>10</v>
+      </c>
+      <c r="U32">
+        <v>0.85</v>
+      </c>
+      <c r="V32">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W32" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>36.257984688389413</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>0.1</v>
+      </c>
+      <c r="AA32">
+        <v>0.01</v>
+      </c>
+      <c r="AB32">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC32" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.8133310927229283</v>
+      </c>
+      <c r="AD32" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>406.39210789582648</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3166,12 +3698,12 @@
         <v>0</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.9019531338434943</v>
-      </c>
-      <c r="E33" s="7">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.0467431740314215</v>
+      </c>
+      <c r="E33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>672.0374679398775</v>
+        <v>291.1551158694113</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -3188,9 +3720,9 @@
       <c r="J33">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>79.500857467404543</v>
+        <v>52.123199599055951</v>
       </c>
       <c r="L33">
         <v>5</v>
@@ -3207,14 +3739,54 @@
       <c r="P33">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="Q33" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3718359102133331</v>
-      </c>
-      <c r="W33" s="3"/>
-      <c r="AC33" s="3"/>
+        <v>1.3547778599290723</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>15</v>
+      </c>
+      <c r="T33">
+        <v>10</v>
+      </c>
+      <c r="U33">
+        <v>0.85</v>
+      </c>
+      <c r="V33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W33" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>32.088902743427873</v>
+      </c>
+      <c r="X33">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>0.1</v>
+      </c>
+      <c r="AA33">
+        <v>0.01</v>
+      </c>
+      <c r="AB33">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC33" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.1058752207104665</v>
+      </c>
+      <c r="AD33" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>195.08575592835194</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3226,11 +3798,11 @@
       </c>
       <c r="D34" s="2">
         <f ca="1">NORMINV(RAND(),12,5)</f>
-        <v>6.7047807960926722</v>
-      </c>
-      <c r="E34" s="7">
+        <v>13.394719729867248</v>
+      </c>
+      <c r="E34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>407.13584058756663</v>
+        <v>350.50378459675915</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -3247,9 +3819,9 @@
       <c r="J34">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>56.549940411435415</v>
+        <v>65.512059036283603</v>
       </c>
       <c r="L34">
         <v>5</v>
@@ -3266,14 +3838,54 @@
       <c r="P34">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="Q34" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2645870501117487</v>
-      </c>
-      <c r="W34" s="3"/>
-      <c r="AC34" s="3"/>
+        <v>4.1733472261489943</v>
+      </c>
+      <c r="R34">
+        <v>5</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+      <c r="U34">
+        <v>1.25</v>
+      </c>
+      <c r="V34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W34" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.38458293626578</v>
+      </c>
+      <c r="X34">
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <v>-0.5</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0.05</v>
+      </c>
+      <c r="AB34">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC34" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.6594934001828712</v>
+      </c>
+      <c r="AD34" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>358.68274871785286</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3284,12 +3896,12 @@
         <v>1</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" ref="D35:D41" ca="1" si="7">NORMINV(RAND(),12,5)</f>
-        <v>8.945113234289833</v>
-      </c>
-      <c r="E35" s="7">
+        <f t="shared" ref="D35:D41" ca="1" si="10">NORMINV(RAND(),12,5)</f>
+        <v>15.000426805543846</v>
+      </c>
+      <c r="E35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>587.71555376194465</v>
+        <v>591.64961146994563</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -3306,9 +3918,9 @@
       <c r="J35">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>81.145751845008959</v>
+        <v>92.432544950573941</v>
       </c>
       <c r="L35">
         <v>5</v>
@@ -3325,14 +3937,54 @@
       <c r="P35">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="Q35" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>13.712418974325292</v>
-      </c>
-      <c r="W35" s="3"/>
-      <c r="AC35" s="3"/>
+        <v>-2.2440110052117497</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+      <c r="U35">
+        <v>1.25</v>
+      </c>
+      <c r="V35">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W35" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>30.536309876155077</v>
+      </c>
+      <c r="X35">
+        <v>2</v>
+      </c>
+      <c r="Y35">
+        <v>-0.5</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0.05</v>
+      </c>
+      <c r="AB35">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC35" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.2636093969514632</v>
+      </c>
+      <c r="AD35" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>35.126228402913561</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3343,12 +3995,12 @@
         <v>1</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>18.480338616608385</v>
-      </c>
-      <c r="E36" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>16.101450808286547</v>
+      </c>
+      <c r="E36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>346.10477800248668</v>
+        <v>218.8392690582231</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -3365,9 +4017,9 @@
       <c r="J36">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>68.818941529869718</v>
+        <v>60.287690711078056</v>
       </c>
       <c r="L36">
         <v>5</v>
@@ -3384,14 +4036,54 @@
       <c r="P36">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q36" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2370393456892663</v>
-      </c>
-      <c r="W36" s="3"/>
-      <c r="AC36" s="3"/>
+        <v>13.896396753767469</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>10</v>
+      </c>
+      <c r="T36">
+        <v>5</v>
+      </c>
+      <c r="U36">
+        <v>1.25</v>
+      </c>
+      <c r="V36">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W36" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>24.364551488988532</v>
+      </c>
+      <c r="X36">
+        <v>2</v>
+      </c>
+      <c r="Y36">
+        <v>-0.5</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0.05</v>
+      </c>
+      <c r="AB36">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC36" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.3482945367377792</v>
+      </c>
+      <c r="AD36" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>36.346261848506892</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3402,12 +4094,12 @@
         <v>1</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.51189250781340334</v>
-      </c>
-      <c r="E37" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>15.044270138894973</v>
+      </c>
+      <c r="E37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>362.3741814454695</v>
+        <v>293.18324894420749</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -3424,9 +4116,9 @@
       <c r="J37">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>50.963058223872295</v>
+        <v>53.002810489514843</v>
       </c>
       <c r="L37">
         <v>5</v>
@@ -3443,14 +4135,54 @@
       <c r="P37">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="Q37" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>13.797401122202919</v>
-      </c>
-      <c r="W37" s="3"/>
-      <c r="AC37" s="3"/>
+        <v>8.4605363359015975</v>
+      </c>
+      <c r="R37">
+        <v>5</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <v>5</v>
+      </c>
+      <c r="U37">
+        <v>1.25</v>
+      </c>
+      <c r="V37">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W37" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.739959976054578</v>
+      </c>
+      <c r="X37">
+        <v>2</v>
+      </c>
+      <c r="Y37">
+        <v>-0.5</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0.05</v>
+      </c>
+      <c r="AB37">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC37" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.6895536269786362</v>
+      </c>
+      <c r="AD37" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>45.170836047969736</v>
+      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3461,12 +4193,12 @@
         <v>1</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>15.373725298445235</v>
-      </c>
-      <c r="E38" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.599869376728476</v>
+      </c>
+      <c r="E38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>811.1096001320808</v>
+        <v>227.05925880844154</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -3483,9 +4215,9 @@
       <c r="J38">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>97.145993030454349</v>
+        <v>51.800806065847901</v>
       </c>
       <c r="L38">
         <v>5</v>
@@ -3502,14 +4234,54 @@
       <c r="P38">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="Q38" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>9.4682035116488557</v>
-      </c>
-      <c r="W38" s="3"/>
-      <c r="AC38" s="3"/>
+        <v>8.7229913156510328</v>
+      </c>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>10</v>
+      </c>
+      <c r="T38">
+        <v>5</v>
+      </c>
+      <c r="U38">
+        <v>1.25</v>
+      </c>
+      <c r="V38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W38" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>30.814443890569581</v>
+      </c>
+      <c r="X38">
+        <v>2</v>
+      </c>
+      <c r="Y38">
+        <v>-0.5</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0.05</v>
+      </c>
+      <c r="AB38">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC38" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2375589176519828</v>
+      </c>
+      <c r="AD38" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>92.194040661990073</v>
+      </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3520,12 +4292,12 @@
         <v>1</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>12.37502791740758</v>
-      </c>
-      <c r="E39" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>8.7161819929937607</v>
+      </c>
+      <c r="E39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>589.99040194373515</v>
+        <v>170.77673480864982</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -3542,9 +4314,9 @@
       <c r="J39">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>74.994311509226691</v>
+        <v>36.517156046104034</v>
       </c>
       <c r="L39">
         <v>5</v>
@@ -3561,14 +4333,54 @@
       <c r="P39">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="Q39" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.168504142401408</v>
-      </c>
-      <c r="W39" s="3"/>
-      <c r="AC39" s="3"/>
+        <v>1.728092008185286</v>
+      </c>
+      <c r="R39">
+        <v>5</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>5</v>
+      </c>
+      <c r="U39">
+        <v>1.25</v>
+      </c>
+      <c r="V39">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W39" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>12.605090610418824</v>
+      </c>
+      <c r="X39">
+        <v>2</v>
+      </c>
+      <c r="Y39">
+        <v>-0.5</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0.05</v>
+      </c>
+      <c r="AB39">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC39" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.8336243620936532</v>
+      </c>
+      <c r="AD39" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>143.3069085927917</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3579,12 +4391,12 @@
         <v>1</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>21.522121435906225</v>
-      </c>
-      <c r="E40" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.007764527632415</v>
+      </c>
+      <c r="E40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>324.78250759389073</v>
+        <v>256.64514779725647</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -3601,9 +4413,9 @@
       <c r="J40">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>69.564170391326968</v>
+        <v>50.480616199276376</v>
       </c>
       <c r="L40">
         <v>5</v>
@@ -3620,14 +4432,54 @@
       <c r="P40">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q40" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.3955144385383598</v>
-      </c>
-      <c r="W40" s="3"/>
-      <c r="AC40" s="3"/>
+        <v>5.9741579208325781</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
+      </c>
+      <c r="S40">
+        <v>10</v>
+      </c>
+      <c r="T40">
+        <v>5</v>
+      </c>
+      <c r="U40">
+        <v>1.25</v>
+      </c>
+      <c r="V40">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W40" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.341077362659128</v>
+      </c>
+      <c r="X40">
+        <v>2</v>
+      </c>
+      <c r="Y40">
+        <v>-0.5</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0.05</v>
+      </c>
+      <c r="AB40">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC40" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.67333842847104985</v>
+      </c>
+      <c r="AD40" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>17.896086509503228</v>
+      </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3638,12 +4490,12 @@
         <v>1</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>10.711906700685139</v>
-      </c>
-      <c r="E41" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>19.253075932727242</v>
+      </c>
+      <c r="E41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>238.74808766094301</v>
+        <v>541.01498521200858</v>
       </c>
       <c r="F41">
         <v>5</v>
@@ -3660,9 +4512,9 @@
       <c r="J41">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>46.665069043287183</v>
+        <v>81.966021712969834</v>
       </c>
       <c r="L41">
         <v>5</v>
@@ -3679,14 +4531,54 @@
       <c r="P41">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6974631176917541</v>
-      </c>
-      <c r="W41" s="3"/>
-      <c r="AC41" s="3"/>
+        <v>9.1494989500247534</v>
+      </c>
+      <c r="R41">
+        <v>5</v>
+      </c>
+      <c r="S41">
+        <v>10</v>
+      </c>
+      <c r="T41">
+        <v>5</v>
+      </c>
+      <c r="U41">
+        <v>1.25</v>
+      </c>
+      <c r="V41">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W41" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.194594824210874</v>
+      </c>
+      <c r="X41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>-0.5</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0.05</v>
+      </c>
+      <c r="AB41">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC41" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15460696632099502</v>
+      </c>
+      <c r="AD41" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>13.700261385318306</v>
+      </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3698,11 +4590,11 @@
       </c>
       <c r="D42" s="2">
         <f ca="1">NORMINV(RAND(),8,2)</f>
-        <v>9.5225288909605865</v>
-      </c>
-      <c r="E42" s="7">
+        <v>7.2242381623042879</v>
+      </c>
+      <c r="E42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>468.26817074920802</v>
+        <v>363.4133460356137</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -3719,9 +4611,9 @@
       <c r="J42">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>55.161478497867229</v>
+        <v>62.657692186122503</v>
       </c>
       <c r="L42">
         <v>5</v>
@@ -3738,14 +4630,54 @@
       <c r="P42">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.5661614726321993</v>
-      </c>
-      <c r="W42" s="3"/>
-      <c r="AC42" s="3"/>
+        <v>6.6864949196251562</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="S42">
+        <v>10</v>
+      </c>
+      <c r="T42">
+        <v>20</v>
+      </c>
+      <c r="U42">
+        <v>0.85</v>
+      </c>
+      <c r="V42">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W42" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>36.358615467777632</v>
+      </c>
+      <c r="X42">
+        <v>2</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>0.2</v>
+      </c>
+      <c r="AA42">
+        <v>0.01</v>
+      </c>
+      <c r="AB42">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AC42" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.0049896393962863</v>
+      </c>
+      <c r="AD42" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>495.09932271880592</v>
+      </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3756,12 +4688,12 @@
         <v>0</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" ref="D43:D49" ca="1" si="8">NORMINV(RAND(),8,2)</f>
-        <v>8.2401609777121951</v>
-      </c>
-      <c r="E43" s="7">
+        <f t="shared" ref="D43:D49" ca="1" si="11">NORMINV(RAND(),8,2)</f>
+        <v>8.2133727260215323</v>
+      </c>
+      <c r="E43" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>203.49597581276993</v>
+        <v>234.92594340053282</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -3778,9 +4710,9 @@
       <c r="J43">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>50.285264574436262</v>
+        <v>48.750400037215663</v>
       </c>
       <c r="L43">
         <v>5</v>
@@ -3797,14 +4729,54 @@
       <c r="P43">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>9.224834063287787</v>
-      </c>
-      <c r="W43" s="3"/>
-      <c r="AC43" s="3"/>
+        <v>-9.6447931036424706</v>
+      </c>
+      <c r="R43">
+        <v>5</v>
+      </c>
+      <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <v>20</v>
+      </c>
+      <c r="U43">
+        <v>0.85</v>
+      </c>
+      <c r="V43">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W43" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>41.35282037548847</v>
+      </c>
+      <c r="X43">
+        <v>2</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>0.2</v>
+      </c>
+      <c r="AA43">
+        <v>0.01</v>
+      </c>
+      <c r="AB43">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AC43" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.1261780704368896</v>
+      </c>
+      <c r="AD43" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>657.74093018965334</v>
+      </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3815,12 +4787,12 @@
         <v>0</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>11.897369688562417</v>
-      </c>
-      <c r="E44" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.7409020657947192</v>
+      </c>
+      <c r="E44" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>342.74142147525856</v>
+        <v>509.9713674029606</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -3837,9 +4809,9 @@
       <c r="J44">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>59.783394259093697</v>
+        <v>50.641801407781301</v>
       </c>
       <c r="L44">
         <v>5</v>
@@ -3856,14 +4828,54 @@
       <c r="P44">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0474717128585009</v>
-      </c>
-      <c r="W44" s="3"/>
-      <c r="AC44" s="3"/>
+        <v>6.9289174518468908</v>
+      </c>
+      <c r="R44">
+        <v>5</v>
+      </c>
+      <c r="S44">
+        <v>10</v>
+      </c>
+      <c r="T44">
+        <v>20</v>
+      </c>
+      <c r="U44">
+        <v>0.85</v>
+      </c>
+      <c r="V44">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W44" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>35.92342199807868</v>
+      </c>
+      <c r="X44">
+        <v>2</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>0.2</v>
+      </c>
+      <c r="AA44">
+        <v>0.01</v>
+      </c>
+      <c r="AB44">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AC44" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.214144295608496</v>
+      </c>
+      <c r="AD44" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>285.06384593946342</v>
+      </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3874,12 +4886,12 @@
         <v>0</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.1471943893642536</v>
-      </c>
-      <c r="E45" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>9.0925257872474994</v>
+      </c>
+      <c r="E45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>609.29517061947752</v>
+        <v>931.91535193885034</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -3896,9 +4908,9 @@
       <c r="J45">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>54.263793716404138</v>
+        <v>66.322678091207194</v>
       </c>
       <c r="L45">
         <v>5</v>
@@ -3915,14 +4927,54 @@
       <c r="P45">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7541809963047497</v>
-      </c>
-      <c r="W45" s="3"/>
-      <c r="AC45" s="3"/>
+        <v>-1.901191475878413</v>
+      </c>
+      <c r="R45">
+        <v>5</v>
+      </c>
+      <c r="S45">
+        <v>10</v>
+      </c>
+      <c r="T45">
+        <v>20</v>
+      </c>
+      <c r="U45">
+        <v>0.85</v>
+      </c>
+      <c r="V45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W45" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>33.493521881549803</v>
+      </c>
+      <c r="X45">
+        <v>2</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>0.2</v>
+      </c>
+      <c r="AA45">
+        <v>0.01</v>
+      </c>
+      <c r="AB45">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AC45" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.1569498876456037</v>
+      </c>
+      <c r="AD45" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>89.667996344524255</v>
+      </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3933,12 +4985,12 @@
         <v>0</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.8544456415318038</v>
-      </c>
-      <c r="E46" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.6570431406166071</v>
+      </c>
+      <c r="E46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>433.65785065792477</v>
+        <v>362.31224384485796</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -3955,9 +5007,9 @@
       <c r="J46">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>46.272300407248963</v>
+        <v>48.129859583373701</v>
       </c>
       <c r="L46">
         <v>5</v>
@@ -3974,14 +5026,54 @@
       <c r="P46">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="Q46" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9411590299488006</v>
-      </c>
-      <c r="W46" s="3"/>
-      <c r="AC46" s="3"/>
+        <v>5.605813618936982</v>
+      </c>
+      <c r="R46">
+        <v>5</v>
+      </c>
+      <c r="S46">
+        <v>10</v>
+      </c>
+      <c r="T46">
+        <v>20</v>
+      </c>
+      <c r="U46">
+        <v>0.85</v>
+      </c>
+      <c r="V46">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W46" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>32.272062058179337</v>
+      </c>
+      <c r="X46">
+        <v>2</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <v>0.2</v>
+      </c>
+      <c r="AA46">
+        <v>0.01</v>
+      </c>
+      <c r="AB46">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AC46" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.2096224984973771</v>
+      </c>
+      <c r="AD46" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>671.03053852871415</v>
+      </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3992,12 +5084,12 @@
         <v>0</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>7.4222896418383186</v>
-      </c>
-      <c r="E47" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.7508801153055913</v>
+      </c>
+      <c r="E47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>342.9725908296839</v>
+        <v>387.88873425868564</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -4014,9 +5106,9 @@
       <c r="J47">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>41.371375942237989</v>
+        <v>67.562959647184698</v>
       </c>
       <c r="L47">
         <v>5</v>
@@ -4033,14 +5125,54 @@
       <c r="P47">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="Q47" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0754501228440496</v>
-      </c>
-      <c r="W47" s="3"/>
-      <c r="AC47" s="3"/>
+        <v>12.271696871740541</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47">
+        <v>10</v>
+      </c>
+      <c r="T47">
+        <v>20</v>
+      </c>
+      <c r="U47">
+        <v>0.85</v>
+      </c>
+      <c r="V47">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W47" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>29.39505584265796</v>
+      </c>
+      <c r="X47">
+        <v>2</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>0.2</v>
+      </c>
+      <c r="AA47">
+        <v>0.01</v>
+      </c>
+      <c r="AB47">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AC47" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.5021682576436461</v>
+      </c>
+      <c r="AD47" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>805.06858688075977</v>
+      </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4051,12 +5183,12 @@
         <v>0</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>5.5821153961180627</v>
-      </c>
-      <c r="E48" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.5345313020181912</v>
+      </c>
+      <c r="E48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>568.84627776289653</v>
+        <v>146.51695977454611</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -4073,9 +5205,9 @@
       <c r="J48">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>49.2564635478101</v>
+        <v>41.666016455449338</v>
       </c>
       <c r="L48">
         <v>5</v>
@@ -4092,14 +5224,54 @@
       <c r="P48">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="Q48" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5001405102844303</v>
-      </c>
-      <c r="W48" s="3"/>
-      <c r="AC48" s="3"/>
+        <v>1.2889016172264016</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+      <c r="S48">
+        <v>10</v>
+      </c>
+      <c r="T48">
+        <v>20</v>
+      </c>
+      <c r="U48">
+        <v>0.85</v>
+      </c>
+      <c r="V48">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W48" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>37.500861954275969</v>
+      </c>
+      <c r="X48">
+        <v>2</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>0.2</v>
+      </c>
+      <c r="AA48">
+        <v>0.01</v>
+      </c>
+      <c r="AB48">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AC48" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.88624606509443016</v>
+      </c>
+      <c r="AD48" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>23.220928827944466</v>
+      </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4110,12 +5282,12 @@
         <v>0</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.1217480027012519</v>
-      </c>
-      <c r="E49" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.2259667328532116</v>
+      </c>
+      <c r="E49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>358.2848712836323</v>
+        <v>787.17694101133827</v>
       </c>
       <c r="F49">
         <v>5</v>
@@ -4132,9 +5304,9 @@
       <c r="J49">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>50.987757473454877</v>
+        <v>64.922009352633538</v>
       </c>
       <c r="L49">
         <v>5</v>
@@ -4151,12 +5323,52 @@
       <c r="P49">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="Q49" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.868331570283341</v>
-      </c>
-      <c r="W49" s="3"/>
-      <c r="AC49" s="3"/>
+        <v>12.77735278968305</v>
+      </c>
+      <c r="R49">
+        <v>5</v>
+      </c>
+      <c r="S49">
+        <v>10</v>
+      </c>
+      <c r="T49">
+        <v>20</v>
+      </c>
+      <c r="U49">
+        <v>0.85</v>
+      </c>
+      <c r="V49">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W49" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>34.507221640134134</v>
+      </c>
+      <c r="X49">
+        <v>2</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>0.2</v>
+      </c>
+      <c r="AA49">
+        <v>0.01</v>
+      </c>
+      <c r="AB49">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AC49" s="9">
+        <f ca="1">ABS(X49+Y49 + Z49+AA49*V49+AB49*W49+NORMINV(RAND(),0,1))</f>
+        <v>2.620268864277576</v>
+      </c>
+      <c r="AD49" s="11">
+        <f t="shared" ca="1" si="6"/>
+        <v>157.99425991842344</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/fleas_model_data_backup.xlsx
+++ b/data/fleas_model_data_backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC3EBB2-6429-0F4F-BA3B-C50C7CA6FD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056AA370-6540-1E4B-B61D-2880ABA4B0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="37520" windowHeight="15460" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
   </bookViews>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE453879-BAE6-2F44-9A5D-0C701CFC8D13}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,11 +630,11 @@
       </c>
       <c r="D2" s="2">
         <f ca="1">NORMINV(RAND(),17,3)</f>
-        <v>18.056052359835149</v>
+        <v>15.316182543890758</v>
       </c>
       <c r="E2" s="6">
         <f ca="1">_xlfn.LOGNORM.INV(RAND(),6,0.5)</f>
-        <v>1165.115262198397</v>
+        <v>534.5778768416526</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -653,7 +653,7 @@
       </c>
       <c r="K2" s="7">
         <f ca="1">F2+G2 + H2+I2*D2+J2*E2+NORMINV(RAND(),0,5)</f>
-        <v>104.71204885567055</v>
+        <v>70.398953203126013</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -672,7 +672,7 @@
       </c>
       <c r="Q2" s="7">
         <f ca="1">L2+M2+N2+O2*D2+P2*E2+NORMINV(RAND(),0,5)</f>
-        <v>10.907708032144726</v>
+        <v>1.9065840158541971</v>
       </c>
       <c r="R2">
         <v>5</v>
@@ -691,16 +691,16 @@
       </c>
       <c r="W2" s="7">
         <f ca="1">R2+S2 + T2+U2*P2+V2*Q2+NORMINV(RAND(),0,5)</f>
-        <v>26.246231047648781</v>
+        <v>28.928209286165476</v>
       </c>
       <c r="X2">
         <v>2</v>
       </c>
       <c r="Y2">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AA2">
         <v>0.05</v>
@@ -710,11 +710,11 @@
       </c>
       <c r="AC2" s="9">
         <f ca="1">ABS(X2+Y2 + Z2+AA2*V2+AB2*W2+NORMINV(RAND(),0,1))</f>
-        <v>0.10799429648526915</v>
+        <v>0.82788337524339095</v>
       </c>
       <c r="AD2" s="11">
         <f ca="1">_xlfn.LOGNORM.INV(RAND(),AC2,0.1)*10</f>
-        <v>13.052106339156529</v>
+        <v>24.532832655849269</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -729,11 +729,11 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D9" ca="1" si="0">NORMINV(RAND(),17,3)</f>
-        <v>18.901211215278479</v>
+        <v>14.473827707731608</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E49" ca="1" si="1">_xlfn.LOGNORM.INV(RAND(),6,0.5)</f>
-        <v>308.17116991518623</v>
+        <v>395.86961922539047</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -752,7 +752,7 @@
       </c>
       <c r="K3" s="7">
         <f t="shared" ref="K3:K49" ca="1" si="2">F3+G3 + H3+I3*D3+J3*E3+NORMINV(RAND(),0,5)</f>
-        <v>68.154436770709992</v>
+        <v>59.279228090192525</v>
       </c>
       <c r="L3">
         <v>5</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="Q3" s="7">
         <f t="shared" ref="Q3:Q49" ca="1" si="3">L3+M3 + N3+O3*J3+P3*K3+NORMINV(RAND(),0,5)</f>
-        <v>12.55104083341773</v>
+        <v>-11.682631994955305</v>
       </c>
       <c r="R3">
         <v>5</v>
@@ -790,16 +790,16 @@
       </c>
       <c r="W3" s="7">
         <f t="shared" ref="W3:W49" ca="1" si="4">R3+S3 + T3+U3*P3+V3*Q3+NORMINV(RAND(),0,5)</f>
-        <v>23.794825375923466</v>
+        <v>23.745553405199153</v>
       </c>
       <c r="X3">
         <v>2</v>
       </c>
       <c r="Y3">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AA3">
         <v>0.05</v>
@@ -809,11 +809,11 @@
       </c>
       <c r="AC3" s="9">
         <f t="shared" ref="AC3:AC48" ca="1" si="5">ABS(X3+Y3 + Z3+AA3*V3+AB3*W3+NORMINV(RAND(),0,1))</f>
-        <v>4.0463799327076E-2</v>
+        <v>0.67404805882967045</v>
       </c>
       <c r="AD3" s="11">
         <f t="shared" ref="AD3:AD49" ca="1" si="6">_xlfn.LOGNORM.INV(RAND(),AC3,0.1)*10</f>
-        <v>9.6023270999350334</v>
+        <v>16.164898593210946</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -828,11 +828,11 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.861138980018552</v>
+        <v>18.401325943930409</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>350.75673381817143</v>
+        <v>452.24331368824727</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="K4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>62.136017637830427</v>
+        <v>68.038940609111165</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -870,7 +870,7 @@
       </c>
       <c r="Q4" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>10.652464615093336</v>
+        <v>13.902166707629753</v>
       </c>
       <c r="R4">
         <v>5</v>
@@ -889,16 +889,16 @@
       </c>
       <c r="W4" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>27.321951246384248</v>
+        <v>18.486571837858953</v>
       </c>
       <c r="X4">
         <v>2</v>
       </c>
       <c r="Y4">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AA4">
         <v>0.05</v>
@@ -908,11 +908,11 @@
       </c>
       <c r="AC4" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8842883726939892</v>
+        <v>1.9696309812349229</v>
       </c>
       <c r="AD4" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>149.72110019728456</v>
+        <v>61.921936219928568</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -927,11 +927,11 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14.952148587608411</v>
+        <v>14.745510658844939</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>231.6574049067149</v>
+        <v>332.29706047735345</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="K5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>54.680043380115954</v>
+        <v>57.158934925745243</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="Q5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4416981359879788</v>
+        <v>2.9883333935557483</v>
       </c>
       <c r="R5">
         <v>5</v>
@@ -988,16 +988,16 @@
       </c>
       <c r="W5" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>22.226674913210587</v>
+        <v>29.073596373338244</v>
       </c>
       <c r="X5">
         <v>2</v>
       </c>
       <c r="Y5">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AA5">
         <v>0.05</v>
@@ -1007,11 +1007,11 @@
       </c>
       <c r="AC5" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8019134464775828</v>
+        <v>2.4973756331356531</v>
       </c>
       <c r="AD5" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>157.9479607357693</v>
+        <v>143.36541197491857</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -1026,11 +1026,11 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.763810913891387</v>
+        <v>16.504648334185742</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>456.45329299387635</v>
+        <v>354.75088453922376</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="K6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>69.624883436725426</v>
+        <v>56.341938839200957</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="Q6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3502361369610139</v>
+        <v>12.170723851315266</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -1087,16 +1087,16 @@
       </c>
       <c r="W6" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>24.021171612649248</v>
+        <v>23.012811209446571</v>
       </c>
       <c r="X6">
         <v>2</v>
       </c>
       <c r="Y6">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z6">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AA6">
         <v>0.05</v>
@@ -1106,11 +1106,11 @@
       </c>
       <c r="AC6" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4752751307184959</v>
+        <v>1.6668034774360965</v>
       </c>
       <c r="AD6" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>41.0162622449159</v>
+        <v>49.369706432912878</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -1125,11 +1125,11 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.631306566783216</v>
+        <v>14.007130504902625</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>240.11514486691536</v>
+        <v>416.89466728694225</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="K7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>56.260969223493952</v>
+        <v>66.502410854722925</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="Q7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.703320797881227</v>
+        <v>6.7584748621622808</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -1186,16 +1186,16 @@
       </c>
       <c r="W7" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>33.897345869532501</v>
+        <v>20.810987017722578</v>
       </c>
       <c r="X7">
         <v>2</v>
       </c>
       <c r="Y7">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AA7">
         <v>0.05</v>
@@ -1205,11 +1205,11 @@
       </c>
       <c r="AC7" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1605609578395573</v>
+        <v>2.5032478484177871</v>
       </c>
       <c r="AD7" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>34.955256822753299</v>
+        <v>113.09862458718061</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -1224,11 +1224,11 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.895845823820526</v>
+        <v>21.358815993731625</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>557.89263005069779</v>
+        <v>568.0655058913369</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="K8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>70.610407166420146</v>
+        <v>84.169136888620642</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="Q8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82637837773723799</v>
+        <v>3.0825822504009195</v>
       </c>
       <c r="R8">
         <v>5</v>
@@ -1285,16 +1285,16 @@
       </c>
       <c r="W8" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>18.531910237959927</v>
+        <v>23.463436508890553</v>
       </c>
       <c r="X8">
         <v>2</v>
       </c>
       <c r="Y8">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z8">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AA8">
         <v>0.05</v>
@@ -1304,11 +1304,11 @@
       </c>
       <c r="AC8" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7249079908937568</v>
+        <v>4.4852624433123989E-2</v>
       </c>
       <c r="AD8" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>158.61452570998193</v>
+        <v>11.076140456111784</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -1323,11 +1323,11 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.57259086781653</v>
+        <v>19.225521089914736</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>581.52929784091066</v>
+        <v>379.71364106225622</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="K9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>75.045314111891372</v>
+        <v>65.42164220403555</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="Q9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>10.580238892273426</v>
+        <v>3.1585413538322182</v>
       </c>
       <c r="R9">
         <v>5</v>
@@ -1384,16 +1384,16 @@
       </c>
       <c r="W9" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>28.099804670316594</v>
+        <v>26.597201658924337</v>
       </c>
       <c r="X9">
         <v>2</v>
       </c>
       <c r="Y9">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AA9">
         <v>0.05</v>
@@ -1403,11 +1403,11 @@
       </c>
       <c r="AC9" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91648316575137467</v>
+        <v>2.2256840806457721</v>
       </c>
       <c r="AD9" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>24.178443137359253</v>
+        <v>77.457337747827097</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -1422,11 +1422,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NORMINV(RAND(),5,1)</f>
-        <v>3.9056663577275206</v>
+        <v>5.3617806585159355</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>342.30942329118295</v>
+        <v>146.82196288602276</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="K10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>46.413772977133078</v>
+        <v>41.968759079088002</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="Q10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>14.539614567794869</v>
+        <v>7.6032702145401032</v>
       </c>
       <c r="R10">
         <v>5</v>
@@ -1483,16 +1483,16 @@
       </c>
       <c r="W10" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>35.249304830769596</v>
+        <v>28.994746762567889</v>
       </c>
       <c r="X10">
         <v>2</v>
       </c>
       <c r="Y10">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z10">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA10">
         <v>0.01</v>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="AC10" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5602446445741118</v>
+        <v>2.3841145957055589</v>
       </c>
       <c r="AD10" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>110.32262205645873</v>
+        <v>107.78318016364308</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -1521,11 +1521,11 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11:D17" ca="1" si="7">NORMINV(RAND(),5,1)</f>
-        <v>6.7755646932644975</v>
+        <v>4.5138868311617593</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>190.74637601149337</v>
+        <v>429.08082379307928</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>48.226467717387983</v>
+        <v>51.157761522361064</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="Q11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.786552702921794</v>
+        <v>8.2980948214354235</v>
       </c>
       <c r="R11">
         <v>5</v>
@@ -1582,16 +1582,16 @@
       </c>
       <c r="W11" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>35.776852070616044</v>
+        <v>33.557225455868007</v>
       </c>
       <c r="X11">
         <v>2</v>
       </c>
       <c r="Y11">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z11">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA11">
         <v>0.01</v>
@@ -1601,11 +1601,11 @@
       </c>
       <c r="AC11" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2284945527550994</v>
+        <v>2.9010799225876243</v>
       </c>
       <c r="AD11" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>266.1033208578321</v>
+        <v>177.85938990408809</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -1620,11 +1620,11 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4.3542718446097686</v>
+        <v>5.4325476231931633</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>442.55246014752225</v>
+        <v>341.3399035753352</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="K12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>52.777201996134913</v>
+        <v>52.063951568288722</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="Q12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>12.939643426952266</v>
+        <v>9.6786254134954852</v>
       </c>
       <c r="R12">
         <v>5</v>
@@ -1681,16 +1681,16 @@
       </c>
       <c r="W12" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>28.002673440116702</v>
+        <v>32.68704664210248</v>
       </c>
       <c r="X12">
         <v>2</v>
       </c>
       <c r="Y12">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z12">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA12">
         <v>0.01</v>
@@ -1700,11 +1700,11 @@
       </c>
       <c r="AC12" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1783035808932898</v>
+        <v>1.9895039380569646</v>
       </c>
       <c r="AD12" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>42.90466315207393</v>
+        <v>77.739215795707878</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -1719,11 +1719,11 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5208486061691824</v>
+        <v>5.5080305949312294</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>401.75929135461109</v>
+        <v>279.8660237646867</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="K13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>58.677981061732723</v>
+        <v>45.212966796833364</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="Q13" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.2367178515604973</v>
+        <v>5.1330991812390696</v>
       </c>
       <c r="R13">
         <v>5</v>
@@ -1780,16 +1780,16 @@
       </c>
       <c r="W13" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>28.647330934341724</v>
+        <v>34.247812831947357</v>
       </c>
       <c r="X13">
         <v>2</v>
       </c>
       <c r="Y13">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z13">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA13">
         <v>0.01</v>
@@ -1799,11 +1799,11 @@
       </c>
       <c r="AC13" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3723281066127997</v>
+        <v>2.118315723319705</v>
       </c>
       <c r="AD13" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>30.973597593014603</v>
+        <v>92.446713776200625</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -1818,11 +1818,11 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7487167923015177</v>
+        <v>5.2210038857281882</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>277.01617225697845</v>
+        <v>669.44854389379884</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="K14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>46.639777673402556</v>
+        <v>63.607127056373479</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="Q14" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3343832420962132</v>
+        <v>11.350971218263862</v>
       </c>
       <c r="R14">
         <v>5</v>
@@ -1879,16 +1879,16 @@
       </c>
       <c r="W14" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>19.445053856784973</v>
+        <v>29.866820931111899</v>
       </c>
       <c r="X14">
         <v>2</v>
       </c>
       <c r="Y14">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z14">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA14">
         <v>0.01</v>
@@ -1898,11 +1898,11 @@
       </c>
       <c r="AC14" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7628533247858815</v>
+        <v>1.2387909437706202</v>
       </c>
       <c r="AD14" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>59.26896617379937</v>
+        <v>39.310368801263479</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -1917,11 +1917,11 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4.6953473894499762</v>
+        <v>6.6609961583450641</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>560.34474708413097</v>
+        <v>1218.1715457708528</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="K15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>63.311559917777366</v>
+        <v>93.992831767029301</v>
       </c>
       <c r="L15">
         <v>5</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="Q15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5271314253257273</v>
+        <v>9.6578707567446536</v>
       </c>
       <c r="R15">
         <v>5</v>
@@ -1978,16 +1978,16 @@
       </c>
       <c r="W15" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>26.221326353601579</v>
+        <v>25.222296142596548</v>
       </c>
       <c r="X15">
         <v>2</v>
       </c>
       <c r="Y15">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z15">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA15">
         <v>0.01</v>
@@ -1997,11 +1997,11 @@
       </c>
       <c r="AC15" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1656817814439575</v>
+        <v>0.90754068639119212</v>
       </c>
       <c r="AD15" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>35.967353762220128</v>
+        <v>23.703324671736755</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -2016,11 +2016,11 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4688145931986103</v>
+        <v>4.7504327197370575</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>478.07157096814558</v>
+        <v>428.76953866354035</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="K16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>61.836832142286411</v>
+        <v>59.696892642849896</v>
       </c>
       <c r="L16">
         <v>5</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="Q16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4611305559977179</v>
+        <v>17.11461384235885</v>
       </c>
       <c r="R16">
         <v>5</v>
@@ -2077,16 +2077,16 @@
       </c>
       <c r="W16" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>39.297942541900106</v>
+        <v>28.197914483074072</v>
       </c>
       <c r="X16">
         <v>2</v>
       </c>
       <c r="Y16">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z16">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA16">
         <v>0.01</v>
@@ -2096,11 +2096,11 @@
       </c>
       <c r="AC16" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4255533853276863</v>
+        <v>4.5733316473644194</v>
       </c>
       <c r="AD16" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>42.655111690466505</v>
+        <v>924.43897362071152</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5816909278498246</v>
+        <v>5.037753704319389</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>150.68004665449047</v>
+        <v>689.13116948801007</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="K17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>31.525299058888038</v>
+        <v>64.957676160525907</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="Q17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6817966057150358</v>
+        <v>7.1027909282880906</v>
       </c>
       <c r="R17">
         <v>5</v>
@@ -2176,16 +2176,16 @@
       </c>
       <c r="W17" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>30.381836911229943</v>
+        <v>36.598732482334121</v>
       </c>
       <c r="X17">
         <v>2</v>
       </c>
       <c r="Y17">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Z17">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AA17">
         <v>0.01</v>
@@ -2195,11 +2195,11 @@
       </c>
       <c r="AC17" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6157674039507821</v>
+        <v>2.2540932406855929</v>
       </c>
       <c r="AD17" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>157.08512102886442</v>
+        <v>115.34423758786231</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
@@ -2214,11 +2214,11 @@
       </c>
       <c r="D18" s="2">
         <f ca="1">NORMINV(RAND(),12,4)</f>
-        <v>6.8877908867896283</v>
+        <v>13.078418026696413</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>303.01066534138238</v>
+        <v>336.27629286249208</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>80.338089624674652</v>
+        <v>69.411499693035992</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="Q18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.7595776649738797</v>
+        <v>5.4531730930231994</v>
       </c>
       <c r="R18">
         <v>5</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="W18" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>34.300020908576293</v>
+        <v>38.354360383192869</v>
       </c>
       <c r="X18">
         <v>2</v>
@@ -2294,11 +2294,11 @@
       </c>
       <c r="AC18" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3088424359739241</v>
+        <v>3.1028226239618002</v>
       </c>
       <c r="AD18" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>40.531582200114727</v>
+        <v>232.11716471273155</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
@@ -2313,11 +2313,11 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" ref="D19:D25" ca="1" si="8">NORMINV(RAND(),12,4)</f>
-        <v>12.055928784282839</v>
+        <v>10.853848331995572</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>510.7812742733243</v>
+        <v>155.53715046822722</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="K19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>98.291271964340524</v>
+        <v>66.273854961783954</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="Q19" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>16.468430565742416</v>
+        <v>3.5156639565473959</v>
       </c>
       <c r="R19">
         <v>5</v>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="W19" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>37.819753083488237</v>
+        <v>47.678753641209028</v>
       </c>
       <c r="X19">
         <v>2</v>
@@ -2393,11 +2393,11 @@
       </c>
       <c r="AC19" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2735404011440892</v>
+        <v>3.0046250312242075</v>
       </c>
       <c r="AD19" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>786.42266162669421</v>
+        <v>212.60278879104254</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
@@ -2412,11 +2412,11 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13.803841978618303</v>
+        <v>14.377202655941435</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>841.0480784106677</v>
+        <v>306.53183641286051</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="K20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>119.85759808226767</v>
+        <v>75.508020705389242</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Q20" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5166396388996617</v>
+        <v>3.8259765306571181</v>
       </c>
       <c r="R20">
         <v>5</v>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="W20" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>41.808465292149606</v>
+        <v>35.405398146696513</v>
       </c>
       <c r="X20">
         <v>2</v>
@@ -2492,11 +2492,11 @@
       </c>
       <c r="AC20" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2559016006760082</v>
+        <v>1.4237321811544972</v>
       </c>
       <c r="AD20" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>256.4637053575384</v>
+        <v>40.749183857777012</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
@@ -2511,11 +2511,11 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>17.137905697401187</v>
+        <v>4.8845258635083955</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>573.63369538269774</v>
+        <v>437.25163839746375</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="K21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>108.66973034494093</v>
+        <v>87.649240065447174</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="Q21" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79660179888802674</v>
+        <v>6.6151939094150922</v>
       </c>
       <c r="R21">
         <v>5</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="W21" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>41.933879110519271</v>
+        <v>43.171921964283911</v>
       </c>
       <c r="X21">
         <v>2</v>
@@ -2591,11 +2591,11 @@
       </c>
       <c r="AC21" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>7.3000726024141205E-2</v>
+        <v>1.4107267057852151</v>
       </c>
       <c r="AD21" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>11.003009561154295</v>
+        <v>44.922432025296089</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
@@ -2610,11 +2610,11 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>14.874561839712827</v>
+        <v>12.027238134716445</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>144.87545463942178</v>
+        <v>411.81428868053115</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="K22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>67.562122215494341</v>
+        <v>88.127677583086708</v>
       </c>
       <c r="L22">
         <v>5</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="Q22" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>13.841518672564801</v>
+        <v>6.5437114963880934</v>
       </c>
       <c r="R22">
         <v>5</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="W22" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>42.925577526054852</v>
+        <v>46.355226321614232</v>
       </c>
       <c r="X22">
         <v>2</v>
@@ -2690,11 +2690,11 @@
       </c>
       <c r="AC22" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0321901968050868</v>
+        <v>1.170784062692229</v>
       </c>
       <c r="AD22" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>26.168979511006292</v>
+        <v>32.207133575641663</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
@@ -2709,11 +2709,11 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13.643476696505097</v>
+        <v>17.495346101421241</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>418.41654768197992</v>
+        <v>675.73948320393731</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="K23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>81.993646800561379</v>
+        <v>113.66912595944521</v>
       </c>
       <c r="L23">
         <v>5</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="Q23" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5764956109148507</v>
+        <v>9.6653662996980003</v>
       </c>
       <c r="R23">
         <v>5</v>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="W23" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>49.318906970696936</v>
+        <v>40.462286903222164</v>
       </c>
       <c r="X23">
         <v>2</v>
@@ -2789,11 +2789,11 @@
       </c>
       <c r="AC23" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6325540796470919</v>
+        <v>1.868419454274979</v>
       </c>
       <c r="AD23" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>128.1825568479706</v>
+        <v>61.352763681039761</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
@@ -2808,11 +2808,11 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>20.199780737215796</v>
+        <v>14.780439707232755</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>368.5031456476832</v>
+        <v>268.07813073543144</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="K24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>91.460744718021999</v>
+        <v>80.178356753968885</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="Q24" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>11.814451137275078</v>
+        <v>13.067582944360375</v>
       </c>
       <c r="R24">
         <v>5</v>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="W24" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>40.977241401222422</v>
+        <v>43.61849932902053</v>
       </c>
       <c r="X24">
         <v>2</v>
@@ -2888,11 +2888,11 @@
       </c>
       <c r="AC24" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3563488810017743</v>
+        <v>3.5376311120762969</v>
       </c>
       <c r="AD24" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>95.92989088998165</v>
+        <v>329.19968068385168</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
@@ -2907,11 +2907,11 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>16.604100087566895</v>
+        <v>9.0998400110955302</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>355.64391859242596</v>
+        <v>461.9701149052928</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="K25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>80.581891442381732</v>
+        <v>86.244414675755294</v>
       </c>
       <c r="L25">
         <v>5</v>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="Q25" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8259572280914522</v>
+        <v>9.0106345686280189</v>
       </c>
       <c r="R25">
         <v>5</v>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="W25" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>43.224270496062296</v>
+        <v>39.874798092628467</v>
       </c>
       <c r="X25">
         <v>2</v>
@@ -2987,11 +2987,11 @@
       </c>
       <c r="AC25" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8363677742068625</v>
+        <v>2.3824186843628681</v>
       </c>
       <c r="AD25" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>61.581142826525408</v>
+        <v>111.07815804945093</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
@@ -3006,11 +3006,11 @@
       </c>
       <c r="D26" s="2">
         <f ca="1">NORMINV(RAND(),6,1)</f>
-        <v>5.6314663840851891</v>
+        <v>6.1031081148084576</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>461.32662963446967</v>
+        <v>608.70265975150426</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="K26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>63.928312556830896</v>
+        <v>82.118171005524928</v>
       </c>
       <c r="L26">
         <v>5</v>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="Q26" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>10.587456291919779</v>
+        <v>5.177048117941057</v>
       </c>
       <c r="R26">
         <v>5</v>
@@ -3067,16 +3067,16 @@
       </c>
       <c r="W26" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>33.113638175605722</v>
+        <v>29.928606594700089</v>
       </c>
       <c r="X26">
         <v>2</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z26">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AA26">
         <v>0.01</v>
@@ -3086,11 +3086,11 @@
       </c>
       <c r="AC26" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2713764202373685</v>
+        <v>2.0067338289960985</v>
       </c>
       <c r="AD26" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>86.667226033952801</v>
+        <v>66.300107612383329</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
@@ -3105,11 +3105,11 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" ref="D27:D33" ca="1" si="9">NORMINV(RAND(),6,1)</f>
-        <v>4.8961370773326633</v>
+        <v>5.9916350347053067</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>569.67750734429637</v>
+        <v>356.57049896691944</v>
       </c>
       <c r="F27">
         <v>5</v>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="K27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>74.127808602029958</v>
+        <v>70.525866192179279</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="Q27" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>14.1342812762999</v>
+        <v>-0.6271575138973855</v>
       </c>
       <c r="R27">
         <v>5</v>
@@ -3166,16 +3166,16 @@
       </c>
       <c r="W27" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>35.397248744754464</v>
+        <v>32.431501289002121</v>
       </c>
       <c r="X27">
         <v>2</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z27">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AA27">
         <v>0.01</v>
@@ -3185,11 +3185,11 @@
       </c>
       <c r="AC27" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7943289475726347</v>
+        <v>2.4277108495742459</v>
       </c>
       <c r="AD27" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>482.67320363897977</v>
+        <v>111.74385056477918</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
@@ -3204,11 +3204,11 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1380727437018177</v>
+        <v>4.6148849638118614</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>393.13746172207527</v>
+        <v>99.734792062771902</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="K28" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>64.154063845157538</v>
+        <v>43.957206346438412</v>
       </c>
       <c r="L28">
         <v>5</v>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="Q28" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>16.145650723399658</v>
+        <v>5.4891376229179825</v>
       </c>
       <c r="R28">
         <v>5</v>
@@ -3265,16 +3265,16 @@
       </c>
       <c r="W28" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>33.235162125297364</v>
+        <v>26.47638814524009</v>
       </c>
       <c r="X28">
         <v>2</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z28">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AA28">
         <v>0.01</v>
@@ -3284,11 +3284,11 @@
       </c>
       <c r="AC28" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.977017354866712</v>
+        <v>3.3730905437512644</v>
       </c>
       <c r="AD28" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>199.29453069180371</v>
+        <v>362.47310894560536</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
@@ -3303,11 +3303,11 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>6.85411864616733</v>
+        <v>5.3375845360445933</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>612.9211252209227</v>
+        <v>433.78152045855416</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="K29" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>80.790114394199534</v>
+        <v>64.268181190807141</v>
       </c>
       <c r="L29">
         <v>5</v>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="Q29" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7976175201243292</v>
+        <v>14.385226331395874</v>
       </c>
       <c r="R29">
         <v>5</v>
@@ -3364,16 +3364,16 @@
       </c>
       <c r="W29" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>25.729682249635914</v>
+        <v>34.739038033223963</v>
       </c>
       <c r="X29">
         <v>2</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z29">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AA29">
         <v>0.01</v>
@@ -3383,11 +3383,11 @@
       </c>
       <c r="AC29" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>4.7359256578080711</v>
+        <v>3.0860354630176281</v>
       </c>
       <c r="AD29" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>1202.9552314220507</v>
+        <v>211.52043393389312</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
@@ -3402,11 +3402,11 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.6268685235903808</v>
+        <v>5.4889399732793303</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>295.3235853817352</v>
+        <v>546.88404154319539</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="K30" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>56.087541537199655</v>
+        <v>68.569596494254469</v>
       </c>
       <c r="L30">
         <v>5</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="Q30" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3677435863480127</v>
+        <v>11.773225580123142</v>
       </c>
       <c r="R30">
         <v>5</v>
@@ -3463,16 +3463,16 @@
       </c>
       <c r="W30" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>25.906850413202044</v>
+        <v>22.301771457749741</v>
       </c>
       <c r="X30">
         <v>2</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z30">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AA30">
         <v>0.01</v>
@@ -3482,11 +3482,11 @@
       </c>
       <c r="AC30" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1342171472994744</v>
+        <v>1.5063289727073927</v>
       </c>
       <c r="AD30" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>210.86520859985427</v>
+        <v>46.30098722184259</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
@@ -3501,11 +3501,11 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3050842714048274</v>
+        <v>4.5395061472425935</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>963.73739468958263</v>
+        <v>698.5015175704267</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="K31" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>102.91602210001497</v>
+        <v>78.622266888846141</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="Q31" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.41785756343039537</v>
+        <v>13.080062063552717</v>
       </c>
       <c r="R31">
         <v>5</v>
@@ -3562,16 +3562,16 @@
       </c>
       <c r="W31" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>31.61228073494329</v>
+        <v>41.847955992975116</v>
       </c>
       <c r="X31">
         <v>2</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z31">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AA31">
         <v>0.01</v>
@@ -3581,11 +3581,11 @@
       </c>
       <c r="AC31" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5279891469365947</v>
+        <v>4.0901384848613329</v>
       </c>
       <c r="AD31" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>315.7378712218183</v>
+        <v>579.00573113587382</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
@@ -3600,11 +3600,11 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.9115404633860003</v>
+        <v>6.5410085992475402</v>
       </c>
       <c r="E32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>419.9122838346853</v>
+        <v>162.83408666240308</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="K32" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>63.063445513350374</v>
+        <v>51.476335872102382</v>
       </c>
       <c r="L32">
         <v>5</v>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="Q32" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>10.390481116395931</v>
+        <v>5.0112817913651622</v>
       </c>
       <c r="R32">
         <v>5</v>
@@ -3661,16 +3661,16 @@
       </c>
       <c r="W32" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>36.257984688389413</v>
+        <v>31.922580146057463</v>
       </c>
       <c r="X32">
         <v>2</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z32">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AA32">
         <v>0.01</v>
@@ -3680,11 +3680,11 @@
       </c>
       <c r="AC32" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3.8133310927229283</v>
+        <v>2.8199311262176425</v>
       </c>
       <c r="AD32" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>406.39210789582648</v>
+        <v>165.29485305230992</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
@@ -3699,11 +3699,11 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0467431740314215</v>
+        <v>4.8903743803336415</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>291.1551158694113</v>
+        <v>611.36319670254227</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="K33" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>52.123199599055951</v>
+        <v>81.192828638696355</v>
       </c>
       <c r="L33">
         <v>5</v>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="Q33" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3547778599290723</v>
+        <v>6.2662009297386927</v>
       </c>
       <c r="R33">
         <v>5</v>
@@ -3760,16 +3760,16 @@
       </c>
       <c r="W33" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>32.088902743427873</v>
+        <v>32.480959754285372</v>
       </c>
       <c r="X33">
         <v>2</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z33">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AA33">
         <v>0.01</v>
@@ -3779,11 +3779,11 @@
       </c>
       <c r="AC33" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1058752207104665</v>
+        <v>4.3342015044806104</v>
       </c>
       <c r="AD33" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>195.08575592835194</v>
+        <v>835.13845358341609</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
@@ -3798,11 +3798,11 @@
       </c>
       <c r="D34" s="2">
         <f ca="1">NORMINV(RAND(),12,5)</f>
-        <v>13.394719729867248</v>
+        <v>8.4614599408364981</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>350.50378459675915</v>
+        <v>398.4757731771619</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="K34" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>65.512059036283603</v>
+        <v>51.266643004084742</v>
       </c>
       <c r="L34">
         <v>5</v>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="Q34" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1733472261489943</v>
+        <v>1.3979432815990487</v>
       </c>
       <c r="R34">
         <v>5</v>
@@ -3859,16 +3859,16 @@
       </c>
       <c r="W34" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>22.38458293626578</v>
+        <v>22.373166323777493</v>
       </c>
       <c r="X34">
         <v>2</v>
       </c>
       <c r="Y34">
+        <v>0.75</v>
+      </c>
+      <c r="Z34">
         <v>-0.5</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
       </c>
       <c r="AA34">
         <v>0.05</v>
@@ -3878,11 +3878,11 @@
       </c>
       <c r="AC34" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3.6594934001828712</v>
+        <v>0.75394901389831537</v>
       </c>
       <c r="AD34" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>358.68274871785286</v>
+        <v>24.557220399892184</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
@@ -3897,11 +3897,11 @@
       </c>
       <c r="D35" s="2">
         <f t="shared" ref="D35:D41" ca="1" si="10">NORMINV(RAND(),12,5)</f>
-        <v>15.000426805543846</v>
+        <v>7.5632408717007458</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>591.64961146994563</v>
+        <v>651.02755107084602</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="K35" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>92.432544950573941</v>
+        <v>80.723504741703309</v>
       </c>
       <c r="L35">
         <v>5</v>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="Q35" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.2440110052117497</v>
+        <v>-1.2391676242305527</v>
       </c>
       <c r="R35">
         <v>5</v>
@@ -3958,16 +3958,16 @@
       </c>
       <c r="W35" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>30.536309876155077</v>
+        <v>18.345106582918188</v>
       </c>
       <c r="X35">
         <v>2</v>
       </c>
       <c r="Y35">
+        <v>0.75</v>
+      </c>
+      <c r="Z35">
         <v>-0.5</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
       </c>
       <c r="AA35">
         <v>0.05</v>
@@ -3977,11 +3977,11 @@
       </c>
       <c r="AC35" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2636093969514632</v>
+        <v>2.8705190549000585</v>
       </c>
       <c r="AD35" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>35.126228402913561</v>
+        <v>181.25334466961576</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
@@ -3996,11 +3996,11 @@
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>16.101450808286547</v>
+        <v>7.2791889480569143</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>218.8392690582231</v>
+        <v>267.75335582787267</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="K36" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>60.287690711078056</v>
+        <v>50.642076055920896</v>
       </c>
       <c r="L36">
         <v>5</v>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="Q36" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>13.896396753767469</v>
+        <v>6.0988871771681508</v>
       </c>
       <c r="R36">
         <v>5</v>
@@ -4057,16 +4057,16 @@
       </c>
       <c r="W36" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>24.364551488988532</v>
+        <v>13.570556876374695</v>
       </c>
       <c r="X36">
         <v>2</v>
       </c>
       <c r="Y36">
+        <v>0.75</v>
+      </c>
+      <c r="Z36">
         <v>-0.5</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
       </c>
       <c r="AA36">
         <v>0.05</v>
@@ -4076,11 +4076,11 @@
       </c>
       <c r="AC36" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3482945367377792</v>
+        <v>0.95761178700590666</v>
       </c>
       <c r="AD36" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>36.346261848506892</v>
+        <v>31.153888290032185</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
@@ -4095,11 +4095,11 @@
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>15.044270138894973</v>
+        <v>18.615315710413473</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>293.18324894420749</v>
+        <v>628.36281391182149</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="K37" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>53.002810489514843</v>
+        <v>87.413772764036352</v>
       </c>
       <c r="L37">
         <v>5</v>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="Q37" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4605363359015975</v>
+        <v>17.653717316631898</v>
       </c>
       <c r="R37">
         <v>5</v>
@@ -4156,16 +4156,16 @@
       </c>
       <c r="W37" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>17.739959976054578</v>
+        <v>22.197107590903681</v>
       </c>
       <c r="X37">
         <v>2</v>
       </c>
       <c r="Y37">
+        <v>0.75</v>
+      </c>
+      <c r="Z37">
         <v>-0.5</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
       </c>
       <c r="AA37">
         <v>0.05</v>
@@ -4175,11 +4175,11 @@
       </c>
       <c r="AC37" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6895536269786362</v>
+        <v>2.2866211450229015</v>
       </c>
       <c r="AD37" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>45.170836047969736</v>
+        <v>110.03231825764286</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
@@ -4194,11 +4194,11 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>7.599869376728476</v>
+        <v>14.453118674436212</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>227.05925880844154</v>
+        <v>647.55005887266964</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="K38" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>51.800806065847901</v>
+        <v>93.064832124359398</v>
       </c>
       <c r="L38">
         <v>5</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="Q38" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.7229913156510328</v>
+        <v>1.833904767624694</v>
       </c>
       <c r="R38">
         <v>5</v>
@@ -4255,16 +4255,16 @@
       </c>
       <c r="W38" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>30.814443890569581</v>
+        <v>15.637671109728732</v>
       </c>
       <c r="X38">
         <v>2</v>
       </c>
       <c r="Y38">
+        <v>0.75</v>
+      </c>
+      <c r="Z38">
         <v>-0.5</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
       </c>
       <c r="AA38">
         <v>0.05</v>
@@ -4274,11 +4274,11 @@
       </c>
       <c r="AC38" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2375589176519828</v>
+        <v>1.6207573642853217</v>
       </c>
       <c r="AD38" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>92.194040661990073</v>
+        <v>43.790137277422367</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
@@ -4293,11 +4293,11 @@
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>8.7161819929937607</v>
+        <v>9.7360124438008011</v>
       </c>
       <c r="E39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>170.77673480864982</v>
+        <v>437.19225895759803</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="K39" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>36.517156046104034</v>
+        <v>64.203951341594319</v>
       </c>
       <c r="L39">
         <v>5</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="Q39" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.728092008185286</v>
+        <v>2.9171989989256266</v>
       </c>
       <c r="R39">
         <v>5</v>
@@ -4354,16 +4354,16 @@
       </c>
       <c r="W39" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>12.605090610418824</v>
+        <v>27.648035674611805</v>
       </c>
       <c r="X39">
         <v>2</v>
       </c>
       <c r="Y39">
+        <v>0.75</v>
+      </c>
+      <c r="Z39">
         <v>-0.5</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
       </c>
       <c r="AA39">
         <v>0.05</v>
@@ -4373,11 +4373,11 @@
       </c>
       <c r="AC39" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8336243620936532</v>
+        <v>1.8426450918486517</v>
       </c>
       <c r="AD39" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>143.3069085927917</v>
+        <v>61.90878656821635</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
@@ -4392,11 +4392,11 @@
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>6.007764527632415</v>
+        <v>11.469215668411701</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>256.64514779725647</v>
+        <v>368.50160854943914</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="K40" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>50.480616199276376</v>
+        <v>65.115907789017868</v>
       </c>
       <c r="L40">
         <v>5</v>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="Q40" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9741579208325781</v>
+        <v>4.6349184626954214</v>
       </c>
       <c r="R40">
         <v>5</v>
@@ -4453,16 +4453,16 @@
       </c>
       <c r="W40" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>16.341077362659128</v>
+        <v>24.925841812276165</v>
       </c>
       <c r="X40">
         <v>2</v>
       </c>
       <c r="Y40">
+        <v>0.75</v>
+      </c>
+      <c r="Z40">
         <v>-0.5</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
       </c>
       <c r="AA40">
         <v>0.05</v>
@@ -4472,11 +4472,11 @@
       </c>
       <c r="AC40" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67333842847104985</v>
+        <v>2.9759647006505388</v>
       </c>
       <c r="AD40" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>17.896086509503228</v>
+        <v>195.46468949125949</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
@@ -4491,11 +4491,11 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>19.253075932727242</v>
+        <v>0.4868056036341919</v>
       </c>
       <c r="E41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>541.01498521200858</v>
+        <v>204.48060634841858</v>
       </c>
       <c r="F41">
         <v>5</v>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="K41" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>81.966021712969834</v>
+        <v>35.14756948089137</v>
       </c>
       <c r="L41">
         <v>5</v>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="Q41" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1494989500247534</v>
+        <v>5.7776769876976495</v>
       </c>
       <c r="R41">
         <v>5</v>
@@ -4552,16 +4552,16 @@
       </c>
       <c r="W41" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>20.194594824210874</v>
+        <v>22.976800883926636</v>
       </c>
       <c r="X41">
         <v>2</v>
       </c>
       <c r="Y41">
+        <v>0.75</v>
+      </c>
+      <c r="Z41">
         <v>-0.5</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
       </c>
       <c r="AA41">
         <v>0.05</v>
@@ -4571,11 +4571,11 @@
       </c>
       <c r="AC41" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15460696632099502</v>
+        <v>2.482804398613859</v>
       </c>
       <c r="AD41" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>13.700261385318306</v>
+        <v>130.54962884996382</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
@@ -4590,11 +4590,11 @@
       </c>
       <c r="D42" s="2">
         <f ca="1">NORMINV(RAND(),8,2)</f>
-        <v>7.2242381623042879</v>
+        <v>10.602627867360948</v>
       </c>
       <c r="E42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>363.4133460356137</v>
+        <v>491.1396088998693</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="K42" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>62.657692186122503</v>
+        <v>47.858512399041302</v>
       </c>
       <c r="L42">
         <v>5</v>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="Q42" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6864949196251562</v>
+        <v>9.7278225056851397</v>
       </c>
       <c r="R42">
         <v>5</v>
@@ -4651,16 +4651,16 @@
       </c>
       <c r="W42" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>36.358615467777632</v>
+        <v>34.56775496499953</v>
       </c>
       <c r="X42">
         <v>2</v>
       </c>
       <c r="Y42">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z42">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AA42">
         <v>0.01</v>
@@ -4670,11 +4670,11 @@
       </c>
       <c r="AC42" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0049896393962863</v>
+        <v>3.2578502550047905</v>
       </c>
       <c r="AD42" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>495.09932271880592</v>
+        <v>213.9839357363374</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
@@ -4689,11 +4689,11 @@
       </c>
       <c r="D43" s="2">
         <f t="shared" ref="D43:D49" ca="1" si="11">NORMINV(RAND(),8,2)</f>
-        <v>8.2133727260215323</v>
+        <v>6.2964960371125542</v>
       </c>
       <c r="E43" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>234.92594340053282</v>
+        <v>694.64965189554118</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="K43" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>48.750400037215663</v>
+        <v>54.418724952264711</v>
       </c>
       <c r="L43">
         <v>5</v>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="Q43" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.6447931036424706</v>
+        <v>9.0192887464345599</v>
       </c>
       <c r="R43">
         <v>5</v>
@@ -4750,16 +4750,16 @@
       </c>
       <c r="W43" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>41.35282037548847</v>
+        <v>34.936276948055685</v>
       </c>
       <c r="X43">
         <v>2</v>
       </c>
       <c r="Y43">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z43">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AA43">
         <v>0.01</v>
@@ -4769,11 +4769,11 @@
       </c>
       <c r="AC43" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>4.1261780704368896</v>
+        <v>3.3916450892552175</v>
       </c>
       <c r="AD43" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>657.74093018965334</v>
+        <v>277.24824622720661</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
@@ -4788,11 +4788,11 @@
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>8.7409020657947192</v>
+        <v>9.5660826687455458</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>509.9713674029606</v>
+        <v>457.0170630620716</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="K44" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>50.641801407781301</v>
+        <v>52.373871618229465</v>
       </c>
       <c r="L44">
         <v>5</v>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="Q44" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9289174518468908</v>
+        <v>6.8900831660545565</v>
       </c>
       <c r="R44">
         <v>5</v>
@@ -4849,16 +4849,16 @@
       </c>
       <c r="W44" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>35.92342199807868</v>
+        <v>35.063236522486172</v>
       </c>
       <c r="X44">
         <v>2</v>
       </c>
       <c r="Y44">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z44">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AA44">
         <v>0.01</v>
@@ -4868,11 +4868,11 @@
       </c>
       <c r="AC44" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3.214144295608496</v>
+        <v>3.2975817231553313</v>
       </c>
       <c r="AD44" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>285.06384593946342</v>
+        <v>253.24337173649923</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.2">
@@ -4887,11 +4887,11 @@
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>9.0925257872474994</v>
+        <v>7.6224639556994127</v>
       </c>
       <c r="E45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>931.91535193885034</v>
+        <v>513.29335918344816</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="K45" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>66.322678091207194</v>
+        <v>50.430587025206059</v>
       </c>
       <c r="L45">
         <v>5</v>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="Q45" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.901191475878413</v>
+        <v>6.3971056251032223</v>
       </c>
       <c r="R45">
         <v>5</v>
@@ -4948,16 +4948,16 @@
       </c>
       <c r="W45" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>33.493521881549803</v>
+        <v>32.32025253186162</v>
       </c>
       <c r="X45">
         <v>2</v>
       </c>
       <c r="Y45">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z45">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AA45">
         <v>0.01</v>
@@ -4967,11 +4967,11 @@
       </c>
       <c r="AC45" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1569498876456037</v>
+        <v>3.8813051709833823</v>
       </c>
       <c r="AD45" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>89.667996344524255</v>
+        <v>486.59990215846597</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
@@ -4986,11 +4986,11 @@
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>7.6570431406166071</v>
+        <v>8.654039986277942</v>
       </c>
       <c r="E46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>362.31224384485796</v>
+        <v>405.30408994737985</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="K46" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>48.129859583373701</v>
+        <v>53.580181865390102</v>
       </c>
       <c r="L46">
         <v>5</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="Q46" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.605813618936982</v>
+        <v>7.6425881824536415</v>
       </c>
       <c r="R46">
         <v>5</v>
@@ -5047,16 +5047,16 @@
       </c>
       <c r="W46" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>32.272062058179337</v>
+        <v>34.971352259345345</v>
       </c>
       <c r="X46">
         <v>2</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z46">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AA46">
         <v>0.01</v>
@@ -5066,11 +5066,11 @@
       </c>
       <c r="AC46" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2096224984973771</v>
+        <v>4.2196629084148496</v>
       </c>
       <c r="AD46" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>671.03053852871415</v>
+        <v>702.69413955479411</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
@@ -5085,11 +5085,11 @@
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>8.7508801153055913</v>
+        <v>10.299739354312697</v>
       </c>
       <c r="E47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>387.88873425868564</v>
+        <v>445.34365981063246</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="K47" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>67.562959647184698</v>
+        <v>53.203766177380615</v>
       </c>
       <c r="L47">
         <v>5</v>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="Q47" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>12.271696871740541</v>
+        <v>13.072262083806244</v>
       </c>
       <c r="R47">
         <v>5</v>
@@ -5146,16 +5146,16 @@
       </c>
       <c r="W47" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>29.39505584265796</v>
+        <v>30.091639392221239</v>
       </c>
       <c r="X47">
         <v>2</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z47">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AA47">
         <v>0.01</v>
@@ -5165,11 +5165,11 @@
       </c>
       <c r="AC47" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>4.5021682576436461</v>
+        <v>3.1725437295973231</v>
       </c>
       <c r="AD47" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>805.06858688075977</v>
+        <v>207.1647951044929</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
@@ -5184,11 +5184,11 @@
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5345313020181912</v>
+        <v>9.4034209249487883</v>
       </c>
       <c r="E48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>146.51695977454611</v>
+        <v>236.40065018299782</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="K48" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>41.666016455449338</v>
+        <v>53.20642269934465</v>
       </c>
       <c r="L48">
         <v>5</v>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="Q48" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2889016172264016</v>
+        <v>11.905363890802807</v>
       </c>
       <c r="R48">
         <v>5</v>
@@ -5245,16 +5245,16 @@
       </c>
       <c r="W48" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>37.500861954275969</v>
+        <v>33.394050170375451</v>
       </c>
       <c r="X48">
         <v>2</v>
       </c>
       <c r="Y48">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z48">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AA48">
         <v>0.01</v>
@@ -5264,11 +5264,11 @@
       </c>
       <c r="AC48" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88624606509443016</v>
+        <v>2.4228920405625258</v>
       </c>
       <c r="AD48" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>23.220928827944466</v>
+        <v>119.78523678721518</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
@@ -5283,11 +5283,11 @@
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>7.2259667328532116</v>
+        <v>8.9883328110726453</v>
       </c>
       <c r="E49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>787.17694101133827</v>
+        <v>121.50122426036388</v>
       </c>
       <c r="F49">
         <v>5</v>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="K49" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>64.922009352633538</v>
+        <v>43.057620342499391</v>
       </c>
       <c r="L49">
         <v>5</v>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="Q49" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>12.77735278968305</v>
+        <v>2.6391016489569106</v>
       </c>
       <c r="R49">
         <v>5</v>
@@ -5344,16 +5344,16 @@
       </c>
       <c r="W49" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>34.507221640134134</v>
+        <v>44.396590480310145</v>
       </c>
       <c r="X49">
         <v>2</v>
       </c>
       <c r="Y49">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z49">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="AA49">
         <v>0.01</v>
@@ -5363,11 +5363,11 @@
       </c>
       <c r="AC49" s="9">
         <f ca="1">ABS(X49+Y49 + Z49+AA49*V49+AB49*W49+NORMINV(RAND(),0,1))</f>
-        <v>2.620268864277576</v>
+        <v>3.2564054444731063</v>
       </c>
       <c r="AD49" s="11">
         <f t="shared" ca="1" si="6"/>
-        <v>157.99425991842344</v>
+        <v>237.08879844401676</v>
       </c>
     </row>
   </sheetData>

--- a/data/fleas_model_data_backup.xlsx
+++ b/data/fleas_model_data_backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056AA370-6540-1E4B-B61D-2880ABA4B0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334AF31F-EAA0-1B46-98C7-3FDAAE083A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="37520" windowHeight="15460" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
   </bookViews>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -171,9 +171,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -511,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE453879-BAE6-2F44-9A5D-0C701CFC8D13}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,7 +520,7 @@
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -611,7 +609,7 @@
       <c r="AB1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="AD1" s="5" t="s">
@@ -630,11 +628,11 @@
       </c>
       <c r="D2" s="2">
         <f ca="1">NORMINV(RAND(),17,3)</f>
-        <v>15.316182543890758</v>
+        <v>16.421734557563092</v>
       </c>
       <c r="E2" s="6">
         <f ca="1">_xlfn.LOGNORM.INV(RAND(),6,0.5)</f>
-        <v>534.5778768416526</v>
+        <v>516.40900401503302</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -653,7 +651,7 @@
       </c>
       <c r="K2" s="7">
         <f ca="1">F2+G2 + H2+I2*D2+J2*E2+NORMINV(RAND(),0,5)</f>
-        <v>70.398953203126013</v>
+        <v>70.898324600686365</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -672,7 +670,7 @@
       </c>
       <c r="Q2" s="7">
         <f ca="1">L2+M2+N2+O2*D2+P2*E2+NORMINV(RAND(),0,5)</f>
-        <v>1.9065840158541971</v>
+        <v>4.648105692466121</v>
       </c>
       <c r="R2">
         <v>5</v>
@@ -691,7 +689,7 @@
       </c>
       <c r="W2" s="7">
         <f ca="1">R2+S2 + T2+U2*P2+V2*Q2+NORMINV(RAND(),0,5)</f>
-        <v>28.928209286165476</v>
+        <v>30.578182843048335</v>
       </c>
       <c r="X2">
         <v>2</v>
@@ -708,13 +706,13 @@
       <c r="AB2">
         <v>1E-3</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AC2" s="8">
         <f ca="1">ABS(X2+Y2 + Z2+AA2*V2+AB2*W2+NORMINV(RAND(),0,1))</f>
-        <v>0.82788337524339095</v>
-      </c>
-      <c r="AD2" s="11">
+        <v>1.9472982089240258</v>
+      </c>
+      <c r="AD2" s="9">
         <f ca="1">_xlfn.LOGNORM.INV(RAND(),AC2,0.1)*10</f>
-        <v>24.532832655849269</v>
+        <v>63.396930963692988</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -729,11 +727,11 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D9" ca="1" si="0">NORMINV(RAND(),17,3)</f>
-        <v>14.473827707731608</v>
+        <v>12.616045866078839</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E49" ca="1" si="1">_xlfn.LOGNORM.INV(RAND(),6,0.5)</f>
-        <v>395.86961922539047</v>
+        <v>363.49655297613799</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -752,7 +750,7 @@
       </c>
       <c r="K3" s="7">
         <f t="shared" ref="K3:K49" ca="1" si="2">F3+G3 + H3+I3*D3+J3*E3+NORMINV(RAND(),0,5)</f>
-        <v>59.279228090192525</v>
+        <v>50.749089508585328</v>
       </c>
       <c r="L3">
         <v>5</v>
@@ -771,7 +769,7 @@
       </c>
       <c r="Q3" s="7">
         <f t="shared" ref="Q3:Q49" ca="1" si="3">L3+M3 + N3+O3*J3+P3*K3+NORMINV(RAND(),0,5)</f>
-        <v>-11.682631994955305</v>
+        <v>-2.15818121646753</v>
       </c>
       <c r="R3">
         <v>5</v>
@@ -790,7 +788,7 @@
       </c>
       <c r="W3" s="7">
         <f t="shared" ref="W3:W49" ca="1" si="4">R3+S3 + T3+U3*P3+V3*Q3+NORMINV(RAND(),0,5)</f>
-        <v>23.745553405199153</v>
+        <v>13.533575419581414</v>
       </c>
       <c r="X3">
         <v>2</v>
@@ -807,13 +805,13 @@
       <c r="AB3">
         <v>1E-3</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AC3" s="8">
         <f t="shared" ref="AC3:AC48" ca="1" si="5">ABS(X3+Y3 + Z3+AA3*V3+AB3*W3+NORMINV(RAND(),0,1))</f>
-        <v>0.67404805882967045</v>
-      </c>
-      <c r="AD3" s="11">
+        <v>1.7119785673252321</v>
+      </c>
+      <c r="AD3" s="9">
         <f t="shared" ref="AD3:AD49" ca="1" si="6">_xlfn.LOGNORM.INV(RAND(),AC3,0.1)*10</f>
-        <v>16.164898593210946</v>
+        <v>53.961131639430675</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -828,11 +826,11 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.401325943930409</v>
+        <v>15.56506224801425</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>452.24331368824727</v>
+        <v>303.0103429054252</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -851,7 +849,7 @@
       </c>
       <c r="K4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>68.038940609111165</v>
+        <v>62.224129638972556</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -870,7 +868,7 @@
       </c>
       <c r="Q4" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>13.902166707629753</v>
+        <v>-0.59564368358802433</v>
       </c>
       <c r="R4">
         <v>5</v>
@@ -889,7 +887,7 @@
       </c>
       <c r="W4" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>18.486571837858953</v>
+        <v>26.376588123361618</v>
       </c>
       <c r="X4">
         <v>2</v>
@@ -906,13 +904,13 @@
       <c r="AB4">
         <v>1E-3</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AC4" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9696309812349229</v>
-      </c>
-      <c r="AD4" s="11">
+        <v>2.4889718693781844</v>
+      </c>
+      <c r="AD4" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>61.921936219928568</v>
+        <v>120.43755041013382</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -927,11 +925,11 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14.745510658844939</v>
+        <v>24.389050154381124</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>332.29706047735345</v>
+        <v>257.13387951962397</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -950,7 +948,7 @@
       </c>
       <c r="K5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>57.158934925745243</v>
+        <v>66.072047976130193</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -969,7 +967,7 @@
       </c>
       <c r="Q5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9883333935557483</v>
+        <v>0.50105236938016695</v>
       </c>
       <c r="R5">
         <v>5</v>
@@ -988,7 +986,7 @@
       </c>
       <c r="W5" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>29.073596373338244</v>
+        <v>19.350743502938201</v>
       </c>
       <c r="X5">
         <v>2</v>
@@ -1005,13 +1003,13 @@
       <c r="AB5">
         <v>1E-3</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AC5" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4973756331356531</v>
-      </c>
-      <c r="AD5" s="11">
+        <v>2.8785027252958781</v>
+      </c>
+      <c r="AD5" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>143.36541197491857</v>
+        <v>191.1062462968226</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -1026,11 +1024,11 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.504648334185742</v>
+        <v>16.450099995886379</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>354.75088453922376</v>
+        <v>254.15616446027803</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1049,7 +1047,7 @@
       </c>
       <c r="K6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>56.341938839200957</v>
+        <v>62.579464330074025</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -1068,7 +1066,7 @@
       </c>
       <c r="Q6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>12.170723851315266</v>
+        <v>11.641114229781531</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -1087,7 +1085,7 @@
       </c>
       <c r="W6" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>23.012811209446571</v>
+        <v>21.334402852332694</v>
       </c>
       <c r="X6">
         <v>2</v>
@@ -1104,13 +1102,13 @@
       <c r="AB6">
         <v>1E-3</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AC6" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6668034774360965</v>
-      </c>
-      <c r="AD6" s="11">
+        <v>2.9509999740695472</v>
+      </c>
+      <c r="AD6" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>49.369706432912878</v>
+        <v>164.30858064044403</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -1125,11 +1123,11 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14.007130504902625</v>
+        <v>14.798663470886712</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>416.89466728694225</v>
+        <v>604.06100019929431</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1148,7 +1146,7 @@
       </c>
       <c r="K7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>66.502410854722925</v>
+        <v>74.435145018167546</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -1167,7 +1165,7 @@
       </c>
       <c r="Q7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7584748621622808</v>
+        <v>2.9327618929838382</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -1186,7 +1184,7 @@
       </c>
       <c r="W7" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>20.810987017722578</v>
+        <v>16.046866371199044</v>
       </c>
       <c r="X7">
         <v>2</v>
@@ -1203,13 +1201,13 @@
       <c r="AB7">
         <v>1E-3</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AC7" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5032478484177871</v>
-      </c>
-      <c r="AD7" s="11">
+        <v>0.87961567414712449</v>
+      </c>
+      <c r="AD7" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>113.09862458718061</v>
+        <v>25.305223697839644</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -1224,11 +1222,11 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.358815993731625</v>
+        <v>17.024735919267521</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>568.0655058913369</v>
+        <v>828.59271119205528</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1247,7 +1245,7 @@
       </c>
       <c r="K8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>84.169136888620642</v>
+        <v>82.949898501328349</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1266,7 +1264,7 @@
       </c>
       <c r="Q8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0825822504009195</v>
+        <v>5.1761203766948407</v>
       </c>
       <c r="R8">
         <v>5</v>
@@ -1285,7 +1283,7 @@
       </c>
       <c r="W8" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>23.463436508890553</v>
+        <v>22.276873712088971</v>
       </c>
       <c r="X8">
         <v>2</v>
@@ -1302,13 +1300,13 @@
       <c r="AB8">
         <v>1E-3</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AC8" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4852624433123989E-2</v>
-      </c>
-      <c r="AD8" s="11">
+        <v>1.7302656359064228</v>
+      </c>
+      <c r="AD8" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>11.076140456111784</v>
+        <v>68.376447719384089</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -1323,11 +1321,11 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.225521089914736</v>
+        <v>18.191259056223732</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>379.71364106225622</v>
+        <v>818.43517661661633</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1346,7 +1344,7 @@
       </c>
       <c r="K9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>65.42164220403555</v>
+        <v>81.210022913403463</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -1365,7 +1363,7 @@
       </c>
       <c r="Q9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1585413538322182</v>
+        <v>6.6931512324277822</v>
       </c>
       <c r="R9">
         <v>5</v>
@@ -1384,7 +1382,7 @@
       </c>
       <c r="W9" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>26.597201658924337</v>
+        <v>30.263372200363861</v>
       </c>
       <c r="X9">
         <v>2</v>
@@ -1401,13 +1399,13 @@
       <c r="AB9">
         <v>1E-3</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AC9" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2256840806457721</v>
-      </c>
-      <c r="AD9" s="11">
+        <v>2.4087090965141131</v>
+      </c>
+      <c r="AD9" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>77.457337747827097</v>
+        <v>115.11480548427338</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -1422,11 +1420,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NORMINV(RAND(),5,1)</f>
-        <v>5.3617806585159355</v>
+        <v>7.3124618888824395</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>146.82196288602276</v>
+        <v>595.0548655723743</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -1445,7 +1443,7 @@
       </c>
       <c r="K10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>41.968759079088002</v>
+        <v>69.483379856600095</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -1464,7 +1462,7 @@
       </c>
       <c r="Q10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6032702145401032</v>
+        <v>5.8078614111332429</v>
       </c>
       <c r="R10">
         <v>5</v>
@@ -1483,7 +1481,7 @@
       </c>
       <c r="W10" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>28.994746762567889</v>
+        <v>28.856898864451964</v>
       </c>
       <c r="X10">
         <v>2</v>
@@ -1500,13 +1498,13 @@
       <c r="AB10">
         <v>1E-3</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AC10" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3841145957055589</v>
-      </c>
-      <c r="AD10" s="11">
+        <v>0.73179437717292073</v>
+      </c>
+      <c r="AD10" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>107.78318016364308</v>
+        <v>22.488163481348877</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -1521,11 +1519,11 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11:D17" ca="1" si="7">NORMINV(RAND(),5,1)</f>
-        <v>4.5138868311617593</v>
+        <v>4.6198715165420614</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>429.08082379307928</v>
+        <v>294.63844855103406</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -1544,7 +1542,7 @@
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>51.157761522361064</v>
+        <v>57.173532091367996</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -1563,7 +1561,7 @@
       </c>
       <c r="Q11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.2980948214354235</v>
+        <v>15.433089876378583</v>
       </c>
       <c r="R11">
         <v>5</v>
@@ -1582,7 +1580,7 @@
       </c>
       <c r="W11" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>33.557225455868007</v>
+        <v>29.576750796312929</v>
       </c>
       <c r="X11">
         <v>2</v>
@@ -1599,13 +1597,13 @@
       <c r="AB11">
         <v>1E-3</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AC11" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9010799225876243</v>
-      </c>
-      <c r="AD11" s="11">
+        <v>1.0850124991200689</v>
+      </c>
+      <c r="AD11" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>177.85938990408809</v>
+        <v>27.879667623246398</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -1620,11 +1618,11 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5.4325476231931633</v>
+        <v>3.2578290010172872</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>341.3399035753352</v>
+        <v>460.28878014016556</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -1643,7 +1641,7 @@
       </c>
       <c r="K12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>52.063951568288722</v>
+        <v>47.210374983353759</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -1662,7 +1660,7 @@
       </c>
       <c r="Q12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6786254134954852</v>
+        <v>5.8877139349138155</v>
       </c>
       <c r="R12">
         <v>5</v>
@@ -1681,7 +1679,7 @@
       </c>
       <c r="W12" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>32.68704664210248</v>
+        <v>28.302917786866299</v>
       </c>
       <c r="X12">
         <v>2</v>
@@ -1698,13 +1696,13 @@
       <c r="AB12">
         <v>1E-3</v>
       </c>
-      <c r="AC12" s="9">
+      <c r="AC12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9895039380569646</v>
-      </c>
-      <c r="AD12" s="11">
+        <v>1.8306530693252303</v>
+      </c>
+      <c r="AD12" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>77.739215795707878</v>
+        <v>60.512552122758507</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -1719,11 +1717,11 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5080305949312294</v>
+        <v>4.9063039513688711</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>279.8660237646867</v>
+        <v>183.53931816396596</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -1742,7 +1740,7 @@
       </c>
       <c r="K13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>45.212966796833364</v>
+        <v>46.989555749731011</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1761,7 +1759,7 @@
       </c>
       <c r="Q13" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1330991812390696</v>
+        <v>10.693992993655057</v>
       </c>
       <c r="R13">
         <v>5</v>
@@ -1780,7 +1778,7 @@
       </c>
       <c r="W13" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>34.247812831947357</v>
+        <v>32.311722155964517</v>
       </c>
       <c r="X13">
         <v>2</v>
@@ -1797,13 +1795,13 @@
       <c r="AB13">
         <v>1E-3</v>
       </c>
-      <c r="AC13" s="9">
+      <c r="AC13" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.118315723319705</v>
-      </c>
-      <c r="AD13" s="11">
+        <v>0.26606624789783795</v>
+      </c>
+      <c r="AD13" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>92.446713776200625</v>
+        <v>13.5175890391041</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -1818,11 +1816,11 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5.2210038857281882</v>
+        <v>5.3052063329280426</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>669.44854389379884</v>
+        <v>522.25343275414127</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -1841,7 +1839,7 @@
       </c>
       <c r="K14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>63.607127056373479</v>
+        <v>59.837105275142768</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -1860,7 +1858,7 @@
       </c>
       <c r="Q14" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>11.350971218263862</v>
+        <v>8.4465721447031079</v>
       </c>
       <c r="R14">
         <v>5</v>
@@ -1879,7 +1877,7 @@
       </c>
       <c r="W14" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>29.866820931111899</v>
+        <v>34.473887487811361</v>
       </c>
       <c r="X14">
         <v>2</v>
@@ -1896,13 +1894,13 @@
       <c r="AB14">
         <v>1E-3</v>
       </c>
-      <c r="AC14" s="9">
+      <c r="AC14" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2387909437706202</v>
-      </c>
-      <c r="AD14" s="11">
+        <v>2.1447008410598833</v>
+      </c>
+      <c r="AD14" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>39.310368801263479</v>
+        <v>87.542985252535289</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -1917,11 +1915,11 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6609961583450641</v>
+        <v>5.7096228069705681</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1218.1715457708528</v>
+        <v>486.27225917230635</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -1940,7 +1938,7 @@
       </c>
       <c r="K15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>93.992831767029301</v>
+        <v>59.809650508021903</v>
       </c>
       <c r="L15">
         <v>5</v>
@@ -1959,7 +1957,7 @@
       </c>
       <c r="Q15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6578707567446536</v>
+        <v>1.7012236406108272</v>
       </c>
       <c r="R15">
         <v>5</v>
@@ -1978,7 +1976,7 @@
       </c>
       <c r="W15" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>25.222296142596548</v>
+        <v>27.773439379912979</v>
       </c>
       <c r="X15">
         <v>2</v>
@@ -1995,13 +1993,13 @@
       <c r="AB15">
         <v>1E-3</v>
       </c>
-      <c r="AC15" s="9">
+      <c r="AC15" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90754068639119212</v>
-      </c>
-      <c r="AD15" s="11">
+        <v>0.96831996277600718</v>
+      </c>
+      <c r="AD15" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>23.703324671736755</v>
+        <v>24.434229020037993</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -2016,11 +2014,11 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7504327197370575</v>
+        <v>4.5894318032494121</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>428.76953866354035</v>
+        <v>424.9037925404337</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -2039,7 +2037,7 @@
       </c>
       <c r="K16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>59.696892642849896</v>
+        <v>66.545354390793193</v>
       </c>
       <c r="L16">
         <v>5</v>
@@ -2058,7 +2056,7 @@
       </c>
       <c r="Q16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>17.11461384235885</v>
+        <v>9.4492828654563699</v>
       </c>
       <c r="R16">
         <v>5</v>
@@ -2077,7 +2075,7 @@
       </c>
       <c r="W16" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>28.197914483074072</v>
+        <v>28.542292136274067</v>
       </c>
       <c r="X16">
         <v>2</v>
@@ -2094,13 +2092,13 @@
       <c r="AB16">
         <v>1E-3</v>
       </c>
-      <c r="AC16" s="9">
+      <c r="AC16" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>4.5733316473644194</v>
-      </c>
-      <c r="AD16" s="11">
+        <v>0.97609426793873755</v>
+      </c>
+      <c r="AD16" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>924.43897362071152</v>
+        <v>22.784068045331555</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
@@ -2115,11 +2113,11 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5.037753704319389</v>
+        <v>2.707665478414603</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>689.13116948801007</v>
+        <v>475.92736791151196</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -2138,7 +2136,7 @@
       </c>
       <c r="K17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>64.957676160525907</v>
+        <v>51.123427917690307</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -2157,7 +2155,7 @@
       </c>
       <c r="Q17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1027909282880906</v>
+        <v>-0.64776431018472103</v>
       </c>
       <c r="R17">
         <v>5</v>
@@ -2176,7 +2174,7 @@
       </c>
       <c r="W17" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>36.598732482334121</v>
+        <v>30.738427797732619</v>
       </c>
       <c r="X17">
         <v>2</v>
@@ -2193,13 +2191,13 @@
       <c r="AB17">
         <v>1E-3</v>
       </c>
-      <c r="AC17" s="9">
+      <c r="AC17" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2540932406855929</v>
-      </c>
-      <c r="AD17" s="11">
+        <v>1.6324435260447929</v>
+      </c>
+      <c r="AD17" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>115.34423758786231</v>
+        <v>55.359252347056234</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
@@ -2214,11 +2212,11 @@
       </c>
       <c r="D18" s="2">
         <f ca="1">NORMINV(RAND(),12,4)</f>
-        <v>13.078418026696413</v>
+        <v>11.130088949010934</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>336.27629286249208</v>
+        <v>642.74588090689292</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -2237,7 +2235,7 @@
       </c>
       <c r="K18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>69.411499693035992</v>
+        <v>103.07693026167836</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -2256,7 +2254,7 @@
       </c>
       <c r="Q18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4531730930231994</v>
+        <v>5.3173420624269578</v>
       </c>
       <c r="R18">
         <v>5</v>
@@ -2275,7 +2273,7 @@
       </c>
       <c r="W18" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>38.354360383192869</v>
+        <v>43.369136503981707</v>
       </c>
       <c r="X18">
         <v>2</v>
@@ -2292,13 +2290,13 @@
       <c r="AB18">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC18" s="9">
+      <c r="AC18" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1028226239618002</v>
-      </c>
-      <c r="AD18" s="11">
+        <v>4.0077452190506309</v>
+      </c>
+      <c r="AD18" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>232.11716471273155</v>
+        <v>469.29829493568252</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
@@ -2313,11 +2311,11 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" ref="D19:D25" ca="1" si="8">NORMINV(RAND(),12,4)</f>
-        <v>10.853848331995572</v>
+        <v>9.7747945994068122</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>155.53715046822722</v>
+        <v>302.72340540512118</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -2336,7 +2334,7 @@
       </c>
       <c r="K19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>66.273854961783954</v>
+        <v>78.674102761759102</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -2355,7 +2353,7 @@
       </c>
       <c r="Q19" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5156639565473959</v>
+        <v>9.1523780264939809</v>
       </c>
       <c r="R19">
         <v>5</v>
@@ -2374,7 +2372,7 @@
       </c>
       <c r="W19" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>47.678753641209028</v>
+        <v>31.810748828050897</v>
       </c>
       <c r="X19">
         <v>2</v>
@@ -2391,13 +2389,13 @@
       <c r="AB19">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC19" s="9">
+      <c r="AC19" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0046250312242075</v>
-      </c>
-      <c r="AD19" s="11">
+        <v>2.8813356028684107</v>
+      </c>
+      <c r="AD19" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>212.60278879104254</v>
+        <v>164.17516061333916</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
@@ -2412,11 +2410,11 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>14.377202655941435</v>
+        <v>12.718356331711915</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>306.53183641286051</v>
+        <v>183.81387257485835</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -2435,7 +2433,7 @@
       </c>
       <c r="K20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>75.508020705389242</v>
+        <v>66.229608141048473</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -2454,7 +2452,7 @@
       </c>
       <c r="Q20" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8259765306571181</v>
+        <v>15.19490097160832</v>
       </c>
       <c r="R20">
         <v>5</v>
@@ -2473,7 +2471,7 @@
       </c>
       <c r="W20" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>35.405398146696513</v>
+        <v>46.08581126438272</v>
       </c>
       <c r="X20">
         <v>2</v>
@@ -2490,13 +2488,13 @@
       <c r="AB20">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC20" s="9">
+      <c r="AC20" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4237321811544972</v>
-      </c>
-      <c r="AD20" s="11">
+        <v>1.2576582553992772</v>
+      </c>
+      <c r="AD20" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>40.749183857777012</v>
+        <v>34.225937715009003</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
@@ -2511,11 +2509,11 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>4.8845258635083955</v>
+        <v>25.732667922334944</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>437.25163839746375</v>
+        <v>504.65968302298563</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -2534,7 +2532,7 @@
       </c>
       <c r="K21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>87.649240065447174</v>
+        <v>104.75314032277483</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -2553,7 +2551,7 @@
       </c>
       <c r="Q21" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6151939094150922</v>
+        <v>18.143355251447197</v>
       </c>
       <c r="R21">
         <v>5</v>
@@ -2572,7 +2570,7 @@
       </c>
       <c r="W21" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>43.171921964283911</v>
+        <v>34.819622163035653</v>
       </c>
       <c r="X21">
         <v>2</v>
@@ -2589,13 +2587,13 @@
       <c r="AB21">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AC21" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4107267057852151</v>
-      </c>
-      <c r="AD21" s="11">
+        <v>3.0772997543572331</v>
+      </c>
+      <c r="AD21" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>44.922432025296089</v>
+        <v>243.55328108011486</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
@@ -2610,11 +2608,11 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>12.027238134716445</v>
+        <v>12.182308210846161</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>411.81428868053115</v>
+        <v>380.48004543156941</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -2633,7 +2631,7 @@
       </c>
       <c r="K22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>88.127677583086708</v>
+        <v>81.190514138085064</v>
       </c>
       <c r="L22">
         <v>5</v>
@@ -2652,7 +2650,7 @@
       </c>
       <c r="Q22" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5437114963880934</v>
+        <v>5.4369687129617486</v>
       </c>
       <c r="R22">
         <v>5</v>
@@ -2671,7 +2669,7 @@
       </c>
       <c r="W22" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>46.355226321614232</v>
+        <v>33.731616918714813</v>
       </c>
       <c r="X22">
         <v>2</v>
@@ -2688,13 +2686,13 @@
       <c r="AB22">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC22" s="9">
+      <c r="AC22" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.170784062692229</v>
-      </c>
-      <c r="AD22" s="11">
+        <v>0.21951160700883321</v>
+      </c>
+      <c r="AD22" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>32.207133575641663</v>
+        <v>12.857970542493884</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
@@ -2709,11 +2707,11 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>17.495346101421241</v>
+        <v>6.4436943158233273</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>675.73948320393731</v>
+        <v>131.11398513242486</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -2732,7 +2730,7 @@
       </c>
       <c r="K23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>113.66912595944521</v>
+        <v>54.725994805745692</v>
       </c>
       <c r="L23">
         <v>5</v>
@@ -2751,7 +2749,7 @@
       </c>
       <c r="Q23" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6653662996980003</v>
+        <v>9.0385256577917215</v>
       </c>
       <c r="R23">
         <v>5</v>
@@ -2770,7 +2768,7 @@
       </c>
       <c r="W23" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>40.462286903222164</v>
+        <v>35.634664301640044</v>
       </c>
       <c r="X23">
         <v>2</v>
@@ -2787,13 +2785,13 @@
       <c r="AB23">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC23" s="9">
+      <c r="AC23" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.868419454274979</v>
-      </c>
-      <c r="AD23" s="11">
+        <v>3.1385433564893379</v>
+      </c>
+      <c r="AD23" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>61.352763681039761</v>
+        <v>201.49386190179973</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
@@ -2808,11 +2806,11 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>14.780439707232755</v>
+        <v>13.519803915159153</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>268.07813073543144</v>
+        <v>264.3973945210368</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -2831,7 +2829,7 @@
       </c>
       <c r="K24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>80.178356753968885</v>
+        <v>74.199733236490758</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2850,7 +2848,7 @@
       </c>
       <c r="Q24" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>13.067582944360375</v>
+        <v>0.64879856927669088</v>
       </c>
       <c r="R24">
         <v>5</v>
@@ -2869,7 +2867,7 @@
       </c>
       <c r="W24" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>43.61849932902053</v>
+        <v>35.749142619455952</v>
       </c>
       <c r="X24">
         <v>2</v>
@@ -2886,13 +2884,13 @@
       <c r="AB24">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC24" s="9">
+      <c r="AC24" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5376311120762969</v>
-      </c>
-      <c r="AD24" s="11">
+        <v>2.3719307032033616</v>
+      </c>
+      <c r="AD24" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>329.19968068385168</v>
+        <v>100.47824136580488</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
@@ -2907,11 +2905,11 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9.0998400110955302</v>
+        <v>11.621859219122518</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>461.9701149052928</v>
+        <v>492.02625359802028</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -2930,7 +2928,7 @@
       </c>
       <c r="K25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>86.244414675755294</v>
+        <v>93.751706469293694</v>
       </c>
       <c r="L25">
         <v>5</v>
@@ -2949,7 +2947,7 @@
       </c>
       <c r="Q25" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0106345686280189</v>
+        <v>16.689409600638243</v>
       </c>
       <c r="R25">
         <v>5</v>
@@ -2968,7 +2966,7 @@
       </c>
       <c r="W25" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>39.874798092628467</v>
+        <v>38.950887031920075</v>
       </c>
       <c r="X25">
         <v>2</v>
@@ -2985,13 +2983,13 @@
       <c r="AB25">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC25" s="9">
+      <c r="AC25" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3824186843628681</v>
-      </c>
-      <c r="AD25" s="11">
+        <v>2.9893897179367603</v>
+      </c>
+      <c r="AD25" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>111.07815804945093</v>
+        <v>173.24645788865109</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
@@ -3006,11 +3004,11 @@
       </c>
       <c r="D26" s="2">
         <f ca="1">NORMINV(RAND(),6,1)</f>
-        <v>6.1031081148084576</v>
+        <v>4.7113634653796685</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>608.70265975150426</v>
+        <v>610.66421185985052</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -3029,7 +3027,7 @@
       </c>
       <c r="K26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>82.118171005524928</v>
+        <v>75.140915643387103</v>
       </c>
       <c r="L26">
         <v>5</v>
@@ -3048,7 +3046,7 @@
       </c>
       <c r="Q26" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.177048117941057</v>
+        <v>10.906304157483461</v>
       </c>
       <c r="R26">
         <v>5</v>
@@ -3067,7 +3065,7 @@
       </c>
       <c r="W26" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>29.928606594700089</v>
+        <v>28.35384208114392</v>
       </c>
       <c r="X26">
         <v>2</v>
@@ -3084,13 +3082,13 @@
       <c r="AB26">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC26" s="9">
+      <c r="AC26" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0067338289960985</v>
-      </c>
-      <c r="AD26" s="11">
+        <v>2.3629874722232236</v>
+      </c>
+      <c r="AD26" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>66.300107612383329</v>
+        <v>117.08331059661757</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
@@ -3105,11 +3103,11 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" ref="D27:D33" ca="1" si="9">NORMINV(RAND(),6,1)</f>
-        <v>5.9916350347053067</v>
+        <v>5.107892492915612</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>356.57049896691944</v>
+        <v>152.78105766438836</v>
       </c>
       <c r="F27">
         <v>5</v>
@@ -3128,7 +3126,7 @@
       </c>
       <c r="K27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>70.525866192179279</v>
+        <v>39.858120455697744</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -3147,7 +3145,7 @@
       </c>
       <c r="Q27" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.6271575138973855</v>
+        <v>1.9975912281484662</v>
       </c>
       <c r="R27">
         <v>5</v>
@@ -3166,7 +3164,7 @@
       </c>
       <c r="W27" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>32.431501289002121</v>
+        <v>33.582565513390669</v>
       </c>
       <c r="X27">
         <v>2</v>
@@ -3183,13 +3181,13 @@
       <c r="AB27">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC27" s="9">
+      <c r="AC27" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4277108495742459</v>
-      </c>
-      <c r="AD27" s="11">
+        <v>4.0195167374403766</v>
+      </c>
+      <c r="AD27" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>111.74385056477918</v>
+        <v>594.77395818022899</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
@@ -3204,11 +3202,11 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4.6148849638118614</v>
+        <v>5.8547441334446892</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>99.734792062771902</v>
+        <v>815.91157667109667</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -3227,7 +3225,7 @@
       </c>
       <c r="K28" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>43.957206346438412</v>
+        <v>90.825728422844307</v>
       </c>
       <c r="L28">
         <v>5</v>
@@ -3246,7 +3244,7 @@
       </c>
       <c r="Q28" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4891376229179825</v>
+        <v>12.152629509534648</v>
       </c>
       <c r="R28">
         <v>5</v>
@@ -3265,7 +3263,7 @@
       </c>
       <c r="W28" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>26.47638814524009</v>
+        <v>32.074396959060763</v>
       </c>
       <c r="X28">
         <v>2</v>
@@ -3282,13 +3280,13 @@
       <c r="AB28">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC28" s="9">
+      <c r="AC28" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>3.3730905437512644</v>
-      </c>
-      <c r="AD28" s="11">
+        <v>4.7824413973518292</v>
+      </c>
+      <c r="AD28" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>362.47310894560536</v>
+        <v>1357.2017569673303</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
@@ -3303,11 +3301,11 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3375845360445933</v>
+        <v>8.1309759664734855</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>433.78152045855416</v>
+        <v>615.6388789818709</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -3326,7 +3324,7 @@
       </c>
       <c r="K29" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>64.268181190807141</v>
+        <v>81.458974768860031</v>
       </c>
       <c r="L29">
         <v>5</v>
@@ -3345,7 +3343,7 @@
       </c>
       <c r="Q29" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>14.385226331395874</v>
+        <v>9.0500537941116583</v>
       </c>
       <c r="R29">
         <v>5</v>
@@ -3364,7 +3362,7 @@
       </c>
       <c r="W29" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>34.739038033223963</v>
+        <v>32.212157854162093</v>
       </c>
       <c r="X29">
         <v>2</v>
@@ -3381,13 +3379,13 @@
       <c r="AB29">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC29" s="9">
+      <c r="AC29" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0860354630176281</v>
-      </c>
-      <c r="AD29" s="11">
+        <v>3.756676813560643</v>
+      </c>
+      <c r="AD29" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>211.52043393389312</v>
+        <v>390.86107331143154</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
@@ -3402,11 +3400,11 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.4889399732793303</v>
+        <v>5.1849074901445151</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>546.88404154319539</v>
+        <v>707.13511577596705</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -3425,7 +3423,7 @@
       </c>
       <c r="K30" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>68.569596494254469</v>
+        <v>90.658829554249621</v>
       </c>
       <c r="L30">
         <v>5</v>
@@ -3444,7 +3442,7 @@
       </c>
       <c r="Q30" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>11.773225580123142</v>
+        <v>7.1981408398636963</v>
       </c>
       <c r="R30">
         <v>5</v>
@@ -3463,7 +3461,7 @@
       </c>
       <c r="W30" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>22.301771457749741</v>
+        <v>30.069886567408709</v>
       </c>
       <c r="X30">
         <v>2</v>
@@ -3480,13 +3478,13 @@
       <c r="AB30">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC30" s="9">
+      <c r="AC30" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5063289727073927</v>
-      </c>
-      <c r="AD30" s="11">
+        <v>2.5805048950354621</v>
+      </c>
+      <c r="AD30" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>46.30098722184259</v>
+        <v>140.24247259942871</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
@@ -3501,11 +3499,11 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4.5395061472425935</v>
+        <v>7.1109264030471051</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>698.5015175704267</v>
+        <v>237.03002723807455</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -3524,7 +3522,7 @@
       </c>
       <c r="K31" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>78.622266888846141</v>
+        <v>49.134516398317345</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -3543,7 +3541,7 @@
       </c>
       <c r="Q31" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>13.080062063552717</v>
+        <v>10.899232070698634</v>
       </c>
       <c r="R31">
         <v>5</v>
@@ -3562,7 +3560,7 @@
       </c>
       <c r="W31" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>41.847955992975116</v>
+        <v>28.343979662739709</v>
       </c>
       <c r="X31">
         <v>2</v>
@@ -3579,13 +3577,13 @@
       <c r="AB31">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC31" s="9">
+      <c r="AC31" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0901384848613329</v>
-      </c>
-      <c r="AD31" s="11">
+        <v>3.4486953421417943</v>
+      </c>
+      <c r="AD31" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>579.00573113587382</v>
+        <v>314.40753333312705</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
@@ -3600,11 +3598,11 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5410085992475402</v>
+        <v>5.7376678927301148</v>
       </c>
       <c r="E32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>162.83408666240308</v>
+        <v>267.33305384162134</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -3623,7 +3621,7 @@
       </c>
       <c r="K32" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>51.476335872102382</v>
+        <v>57.098138046995317</v>
       </c>
       <c r="L32">
         <v>5</v>
@@ -3642,7 +3640,7 @@
       </c>
       <c r="Q32" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0112817913651622</v>
+        <v>15.616073659587645</v>
       </c>
       <c r="R32">
         <v>5</v>
@@ -3661,7 +3659,7 @@
       </c>
       <c r="W32" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>31.922580146057463</v>
+        <v>23.299382958504797</v>
       </c>
       <c r="X32">
         <v>2</v>
@@ -3678,13 +3676,13 @@
       <c r="AB32">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC32" s="9">
+      <c r="AC32" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8199311262176425</v>
-      </c>
-      <c r="AD32" s="11">
+        <v>4.138355715085134</v>
+      </c>
+      <c r="AD32" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>165.29485305230992</v>
+        <v>509.58310154631602</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
@@ -3699,11 +3697,11 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4.8903743803336415</v>
+        <v>6.5798180521171092</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>611.36319670254227</v>
+        <v>319.08643668754797</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -3722,7 +3720,7 @@
       </c>
       <c r="K33" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>81.192828638696355</v>
+        <v>66.251163576598785</v>
       </c>
       <c r="L33">
         <v>5</v>
@@ -3741,7 +3739,7 @@
       </c>
       <c r="Q33" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2662009297386927</v>
+        <v>17.127174325900789</v>
       </c>
       <c r="R33">
         <v>5</v>
@@ -3760,7 +3758,7 @@
       </c>
       <c r="W33" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>32.480959754285372</v>
+        <v>32.916689557368727</v>
       </c>
       <c r="X33">
         <v>2</v>
@@ -3777,13 +3775,13 @@
       <c r="AB33">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC33" s="9">
+      <c r="AC33" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3342015044806104</v>
-      </c>
-      <c r="AD33" s="11">
+        <v>3.735842995622225</v>
+      </c>
+      <c r="AD33" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>835.13845358341609</v>
+        <v>353.78676178000057</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
@@ -3798,11 +3796,11 @@
       </c>
       <c r="D34" s="2">
         <f ca="1">NORMINV(RAND(),12,5)</f>
-        <v>8.4614599408364981</v>
+        <v>7.8553755183450837</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>398.4757731771619</v>
+        <v>452.55545408774265</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -3821,7 +3819,7 @@
       </c>
       <c r="K34" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>51.266643004084742</v>
+        <v>72.809545934825792</v>
       </c>
       <c r="L34">
         <v>5</v>
@@ -3840,7 +3838,7 @@
       </c>
       <c r="Q34" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3979432815990487</v>
+        <v>2.9253149579716702</v>
       </c>
       <c r="R34">
         <v>5</v>
@@ -3859,7 +3857,7 @@
       </c>
       <c r="W34" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>22.373166323777493</v>
+        <v>21.461042896533169</v>
       </c>
       <c r="X34">
         <v>2</v>
@@ -3876,13 +3874,13 @@
       <c r="AB34">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC34" s="9">
+      <c r="AC34" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75394901389831537</v>
-      </c>
-      <c r="AD34" s="11">
+        <v>2.9906305692195447</v>
+      </c>
+      <c r="AD34" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>24.557220399892184</v>
+        <v>187.12683972767562</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
@@ -3897,11 +3895,11 @@
       </c>
       <c r="D35" s="2">
         <f t="shared" ref="D35:D41" ca="1" si="10">NORMINV(RAND(),12,5)</f>
-        <v>7.5632408717007458</v>
+        <v>9.3602656030838922</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>651.02755107084602</v>
+        <v>327.22694917963179</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -3920,7 +3918,7 @@
       </c>
       <c r="K35" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>80.723504741703309</v>
+        <v>56.024528938444909</v>
       </c>
       <c r="L35">
         <v>5</v>
@@ -3939,7 +3937,7 @@
       </c>
       <c r="Q35" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.2391676242305527</v>
+        <v>2.9323849486356068</v>
       </c>
       <c r="R35">
         <v>5</v>
@@ -3958,7 +3956,7 @@
       </c>
       <c r="W35" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>18.345106582918188</v>
+        <v>15.947736747317194</v>
       </c>
       <c r="X35">
         <v>2</v>
@@ -3975,13 +3973,13 @@
       <c r="AB35">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC35" s="9">
+      <c r="AC35" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8705190549000585</v>
-      </c>
-      <c r="AD35" s="11">
+        <v>0.24731985429485803</v>
+      </c>
+      <c r="AD35" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>181.25334466961576</v>
+        <v>13.398266423894869</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
@@ -3996,11 +3994,11 @@
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>7.2791889480569143</v>
+        <v>21.277025423780039</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>267.75335582787267</v>
+        <v>702.85815217501624</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -4019,7 +4017,7 @@
       </c>
       <c r="K36" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>50.642076055920896</v>
+        <v>101.36837303574116</v>
       </c>
       <c r="L36">
         <v>5</v>
@@ -4038,7 +4036,7 @@
       </c>
       <c r="Q36" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0988871771681508</v>
+        <v>-4.6584193678248607</v>
       </c>
       <c r="R36">
         <v>5</v>
@@ -4057,7 +4055,7 @@
       </c>
       <c r="W36" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>13.570556876374695</v>
+        <v>14.173552662164326</v>
       </c>
       <c r="X36">
         <v>2</v>
@@ -4074,13 +4072,13 @@
       <c r="AB36">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC36" s="9">
+      <c r="AC36" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95761178700590666</v>
-      </c>
-      <c r="AD36" s="11">
+        <v>1.7975775830610239</v>
+      </c>
+      <c r="AD36" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>31.153888290032185</v>
+        <v>59.799917102929314</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
@@ -4095,11 +4093,11 @@
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>18.615315710413473</v>
+        <v>13.465228290943864</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>628.36281391182149</v>
+        <v>353.89701108100587</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -4118,7 +4116,7 @@
       </c>
       <c r="K37" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>87.413772764036352</v>
+        <v>59.597905099696668</v>
       </c>
       <c r="L37">
         <v>5</v>
@@ -4137,7 +4135,7 @@
       </c>
       <c r="Q37" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>17.653717316631898</v>
+        <v>2.1051987509403736</v>
       </c>
       <c r="R37">
         <v>5</v>
@@ -4156,7 +4154,7 @@
       </c>
       <c r="W37" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>22.197107590903681</v>
+        <v>7.7265973927796665</v>
       </c>
       <c r="X37">
         <v>2</v>
@@ -4173,13 +4171,13 @@
       <c r="AB37">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC37" s="9">
+      <c r="AC37" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2866211450229015</v>
-      </c>
-      <c r="AD37" s="11">
+        <v>0.75825748529910353</v>
+      </c>
+      <c r="AD37" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>110.03231825764286</v>
+        <v>21.149928953983736</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
@@ -4194,11 +4192,11 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>14.453118674436212</v>
+        <v>14.10110220658396</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>647.55005887266964</v>
+        <v>614.77289718987731</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -4217,7 +4215,7 @@
       </c>
       <c r="K38" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>93.064832124359398</v>
+        <v>75.921491709493125</v>
       </c>
       <c r="L38">
         <v>5</v>
@@ -4236,7 +4234,7 @@
       </c>
       <c r="Q38" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.833904767624694</v>
+        <v>7.6080164102303964</v>
       </c>
       <c r="R38">
         <v>5</v>
@@ -4255,7 +4253,7 @@
       </c>
       <c r="W38" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>15.637671109728732</v>
+        <v>22.969546223186082</v>
       </c>
       <c r="X38">
         <v>2</v>
@@ -4272,13 +4270,13 @@
       <c r="AB38">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC38" s="9">
+      <c r="AC38" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6207573642853217</v>
-      </c>
-      <c r="AD38" s="11">
+        <v>2.5714919534530902</v>
+      </c>
+      <c r="AD38" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>43.790137277422367</v>
+        <v>142.2753362167179</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
@@ -4293,11 +4291,11 @@
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>9.7360124438008011</v>
+        <v>13.271251184212012</v>
       </c>
       <c r="E39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>437.19225895759803</v>
+        <v>1048.3304179549452</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -4316,7 +4314,7 @@
       </c>
       <c r="K39" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>64.203951341594319</v>
+        <v>123.2132443289445</v>
       </c>
       <c r="L39">
         <v>5</v>
@@ -4335,7 +4333,7 @@
       </c>
       <c r="Q39" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9171989989256266</v>
+        <v>4.4861965099650831</v>
       </c>
       <c r="R39">
         <v>5</v>
@@ -4354,7 +4352,7 @@
       </c>
       <c r="W39" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>27.648035674611805</v>
+        <v>19.154758352458707</v>
       </c>
       <c r="X39">
         <v>2</v>
@@ -4371,13 +4369,13 @@
       <c r="AB39">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC39" s="9">
+      <c r="AC39" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8426450918486517</v>
-      </c>
-      <c r="AD39" s="11">
+        <v>1.1169613556551363</v>
+      </c>
+      <c r="AD39" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>61.90878656821635</v>
+        <v>31.093968143259502</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
@@ -4392,11 +4390,11 @@
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>11.469215668411701</v>
+        <v>11.68626501264659</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>368.50160854943914</v>
+        <v>254.37174534016202</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -4415,7 +4413,7 @@
       </c>
       <c r="K40" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>65.115907789017868</v>
+        <v>49.557422634632239</v>
       </c>
       <c r="L40">
         <v>5</v>
@@ -4434,7 +4432,7 @@
       </c>
       <c r="Q40" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6349184626954214</v>
+        <v>0.78729795488847509</v>
       </c>
       <c r="R40">
         <v>5</v>
@@ -4453,7 +4451,7 @@
       </c>
       <c r="W40" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>24.925841812276165</v>
+        <v>17.60532880174706</v>
       </c>
       <c r="X40">
         <v>2</v>
@@ -4470,13 +4468,13 @@
       <c r="AB40">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC40" s="9">
+      <c r="AC40" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9759647006505388</v>
-      </c>
-      <c r="AD40" s="11">
+        <v>3.1628730950670292</v>
+      </c>
+      <c r="AD40" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>195.46468949125949</v>
+        <v>241.37736650031673</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
@@ -4491,11 +4489,11 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4868056036341919</v>
+        <v>7.6788516301607528</v>
       </c>
       <c r="E41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>204.48060634841858</v>
+        <v>1007.597832193791</v>
       </c>
       <c r="F41">
         <v>5</v>
@@ -4514,7 +4512,7 @@
       </c>
       <c r="K41" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>35.14756948089137</v>
+        <v>110.60287249556195</v>
       </c>
       <c r="L41">
         <v>5</v>
@@ -4533,7 +4531,7 @@
       </c>
       <c r="Q41" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7776769876976495</v>
+        <v>6.3910401288147245</v>
       </c>
       <c r="R41">
         <v>5</v>
@@ -4552,7 +4550,7 @@
       </c>
       <c r="W41" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>22.976800883926636</v>
+        <v>14.549789770052222</v>
       </c>
       <c r="X41">
         <v>2</v>
@@ -4569,13 +4567,13 @@
       <c r="AB41">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC41" s="9">
+      <c r="AC41" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.482804398613859</v>
-      </c>
-      <c r="AD41" s="11">
+        <v>2.9916983775150698</v>
+      </c>
+      <c r="AD41" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>130.54962884996382</v>
+        <v>204.11667993371663</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
@@ -4590,11 +4588,11 @@
       </c>
       <c r="D42" s="2">
         <f ca="1">NORMINV(RAND(),8,2)</f>
-        <v>10.602627867360948</v>
+        <v>7.0541568392095568</v>
       </c>
       <c r="E42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>491.1396088998693</v>
+        <v>308.58707603705381</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -4613,7 +4611,7 @@
       </c>
       <c r="K42" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>47.858512399041302</v>
+        <v>51.990775234055228</v>
       </c>
       <c r="L42">
         <v>5</v>
@@ -4632,7 +4630,7 @@
       </c>
       <c r="Q42" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>9.7278225056851397</v>
+        <v>6.2753787682657096</v>
       </c>
       <c r="R42">
         <v>5</v>
@@ -4651,7 +4649,7 @@
       </c>
       <c r="W42" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>34.56775496499953</v>
+        <v>41.067240704236774</v>
       </c>
       <c r="X42">
         <v>2</v>
@@ -4668,13 +4666,13 @@
       <c r="AB42">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="AC42" s="9">
+      <c r="AC42" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2578502550047905</v>
-      </c>
-      <c r="AD42" s="11">
+        <v>4.7192069338024165</v>
+      </c>
+      <c r="AD42" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>213.9839357363374</v>
+        <v>1049.9744228889717</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
@@ -4689,11 +4687,11 @@
       </c>
       <c r="D43" s="2">
         <f t="shared" ref="D43:D49" ca="1" si="11">NORMINV(RAND(),8,2)</f>
-        <v>6.2964960371125542</v>
+        <v>3.9937379362087286</v>
       </c>
       <c r="E43" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>694.64965189554118</v>
+        <v>554.62484168318611</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -4712,7 +4710,7 @@
       </c>
       <c r="K43" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>54.418724952264711</v>
+        <v>52.53662820099229</v>
       </c>
       <c r="L43">
         <v>5</v>
@@ -4731,7 +4729,7 @@
       </c>
       <c r="Q43" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0192887464345599</v>
+        <v>5.5961946506246552</v>
       </c>
       <c r="R43">
         <v>5</v>
@@ -4750,7 +4748,7 @@
       </c>
       <c r="W43" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>34.936276948055685</v>
+        <v>40.176951262426641</v>
       </c>
       <c r="X43">
         <v>2</v>
@@ -4767,13 +4765,13 @@
       <c r="AB43">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="AC43" s="9">
+      <c r="AC43" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>3.3916450892552175</v>
-      </c>
-      <c r="AD43" s="11">
+        <v>3.8448807746834479</v>
+      </c>
+      <c r="AD43" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>277.24824622720661</v>
+        <v>420.43769669151186</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
@@ -4788,11 +4786,11 @@
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>9.5660826687455458</v>
+        <v>8.8489826417289006</v>
       </c>
       <c r="E44" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>457.0170630620716</v>
+        <v>447.1070108562937</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -4811,7 +4809,7 @@
       </c>
       <c r="K44" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>52.373871618229465</v>
+        <v>54.272719429697915</v>
       </c>
       <c r="L44">
         <v>5</v>
@@ -4830,7 +4828,7 @@
       </c>
       <c r="Q44" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8900831660545565</v>
+        <v>1.1617589411724705</v>
       </c>
       <c r="R44">
         <v>5</v>
@@ -4849,7 +4847,7 @@
       </c>
       <c r="W44" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>35.063236522486172</v>
+        <v>39.300374065034198</v>
       </c>
       <c r="X44">
         <v>2</v>
@@ -4866,13 +4864,13 @@
       <c r="AB44">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="AC44" s="9">
+      <c r="AC44" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2975817231553313</v>
-      </c>
-      <c r="AD44" s="11">
+        <v>4.599330498447836</v>
+      </c>
+      <c r="AD44" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>253.24337173649923</v>
+        <v>1100.7993964896154</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.2">
@@ -4887,11 +4885,11 @@
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>7.6224639556994127</v>
+        <v>6.9695944557475462</v>
       </c>
       <c r="E45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>513.29335918344816</v>
+        <v>654.27057554448072</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -4910,7 +4908,7 @@
       </c>
       <c r="K45" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>50.430587025206059</v>
+        <v>59.781897912526524</v>
       </c>
       <c r="L45">
         <v>5</v>
@@ -4929,7 +4927,7 @@
       </c>
       <c r="Q45" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3971056251032223</v>
+        <v>8.0060378843151163</v>
       </c>
       <c r="R45">
         <v>5</v>
@@ -4948,7 +4946,7 @@
       </c>
       <c r="W45" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>32.32025253186162</v>
+        <v>38.992638391838916</v>
       </c>
       <c r="X45">
         <v>2</v>
@@ -4965,13 +4963,13 @@
       <c r="AB45">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="AC45" s="9">
+      <c r="AC45" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>3.8813051709833823</v>
-      </c>
-      <c r="AD45" s="11">
+        <v>3.5308211278507744</v>
+      </c>
+      <c r="AD45" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>486.59990215846597</v>
+        <v>409.38396491703281</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
@@ -4986,11 +4984,11 @@
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>8.654039986277942</v>
+        <v>8.841365210806627</v>
       </c>
       <c r="E46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>405.30408994737985</v>
+        <v>364.89999172088113</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -5009,7 +5007,7 @@
       </c>
       <c r="K46" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>53.580181865390102</v>
+        <v>49.704836061022021</v>
       </c>
       <c r="L46">
         <v>5</v>
@@ -5028,7 +5026,7 @@
       </c>
       <c r="Q46" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6425881824536415</v>
+        <v>9.4246559452180563</v>
       </c>
       <c r="R46">
         <v>5</v>
@@ -5047,7 +5045,7 @@
       </c>
       <c r="W46" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>34.971352259345345</v>
+        <v>39.440858039525743</v>
       </c>
       <c r="X46">
         <v>2</v>
@@ -5064,13 +5062,13 @@
       <c r="AB46">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="AC46" s="9">
+      <c r="AC46" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2196629084148496</v>
-      </c>
-      <c r="AD46" s="11">
+        <v>1.9242868273308842</v>
+      </c>
+      <c r="AD46" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>702.69413955479411</v>
+        <v>63.239263605098984</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
@@ -5085,11 +5083,11 @@
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>10.299739354312697</v>
+        <v>7.1773471070279848</v>
       </c>
       <c r="E47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>445.34365981063246</v>
+        <v>429.18033093003356</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -5108,7 +5106,7 @@
       </c>
       <c r="K47" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>53.203766177380615</v>
+        <v>41.084005523867354</v>
       </c>
       <c r="L47">
         <v>5</v>
@@ -5127,7 +5125,7 @@
       </c>
       <c r="Q47" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>13.072262083806244</v>
+        <v>3.7458119368172169</v>
       </c>
       <c r="R47">
         <v>5</v>
@@ -5146,7 +5144,7 @@
       </c>
       <c r="W47" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>30.091639392221239</v>
+        <v>36.379953176727206</v>
       </c>
       <c r="X47">
         <v>2</v>
@@ -5163,13 +5161,13 @@
       <c r="AB47">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="AC47" s="9">
+      <c r="AC47" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1725437295973231</v>
-      </c>
-      <c r="AD47" s="11">
+        <v>3.6449462193449835</v>
+      </c>
+      <c r="AD47" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>207.1647951044929</v>
+        <v>423.07356799904926</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
@@ -5184,11 +5182,11 @@
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>9.4034209249487883</v>
+        <v>6.6041007157273475</v>
       </c>
       <c r="E48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>236.40065018299782</v>
+        <v>629.58400950050725</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -5207,7 +5205,7 @@
       </c>
       <c r="K48" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>53.20642269934465</v>
+        <v>49.676160341599342</v>
       </c>
       <c r="L48">
         <v>5</v>
@@ -5226,7 +5224,7 @@
       </c>
       <c r="Q48" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>11.905363890802807</v>
+        <v>7.5297123433214956</v>
       </c>
       <c r="R48">
         <v>5</v>
@@ -5245,7 +5243,7 @@
       </c>
       <c r="W48" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>33.394050170375451</v>
+        <v>36.990878827179365</v>
       </c>
       <c r="X48">
         <v>2</v>
@@ -5262,13 +5260,13 @@
       <c r="AB48">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="AC48" s="9">
+      <c r="AC48" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4228920405625258</v>
-      </c>
-      <c r="AD48" s="11">
+        <v>3.8934920087335918</v>
+      </c>
+      <c r="AD48" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>119.78523678721518</v>
+        <v>550.97322291632463</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
@@ -5283,11 +5281,11 @@
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>8.9883328110726453</v>
+        <v>4.188286810652917</v>
       </c>
       <c r="E49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>121.50122426036388</v>
+        <v>192.65797870247411</v>
       </c>
       <c r="F49">
         <v>5</v>
@@ -5306,7 +5304,7 @@
       </c>
       <c r="K49" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>43.057620342499391</v>
+        <v>43.281689276774635</v>
       </c>
       <c r="L49">
         <v>5</v>
@@ -5325,7 +5323,7 @@
       </c>
       <c r="Q49" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6391016489569106</v>
+        <v>7.7597861389817435</v>
       </c>
       <c r="R49">
         <v>5</v>
@@ -5344,7 +5342,7 @@
       </c>
       <c r="W49" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>44.396590480310145</v>
+        <v>27.848127387942665</v>
       </c>
       <c r="X49">
         <v>2</v>
@@ -5361,13 +5359,13 @@
       <c r="AB49">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="AC49" s="9">
+      <c r="AC49" s="8">
         <f ca="1">ABS(X49+Y49 + Z49+AA49*V49+AB49*W49+NORMINV(RAND(),0,1))</f>
-        <v>3.2564054444731063</v>
-      </c>
-      <c r="AD49" s="11">
+        <v>4.4884673836900948</v>
+      </c>
+      <c r="AD49" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>237.08879844401676</v>
+        <v>873.27733264088306</v>
       </c>
     </row>
   </sheetData>
